--- a/graph_pbest.xlsx
+++ b/graph_pbest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\wifiselectionModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\wifimodel\WifiAPSelectionModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4530F9F1-E89C-452A-B179-89BF6BDEBC9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412" firstSheet="3" activeTab="6" xr2:uid="{2369A13C-DBDD-4B0E-BAC0-1A4733C23279}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8415" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="K_increse" sheetId="3" state="hidden" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">N_Increse!$A$1:$F$21</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">K_increse!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,32 +45,32 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8A3DA1F7-04DD-452F-86AD-8FBABB062CBA}" keepAlive="1" name="Query - figure" description="Connection to the 'figure' query in the workbook." type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - figure" description="Connection to the 'figure' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure;Extended Properties=&quot;&quot;" command="SELECT * FROM [figure]"/>
   </connection>
-  <connection id="2" xr16:uid="{C74292A4-1E76-44E2-A7F7-B2E09D59C87C}" keepAlive="1" name="Query - figure (2)" description="Connection to the 'figure (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Query - figure (2)" description="Connection to the 'figure (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [figure (2)]"/>
   </connection>
-  <connection id="3" xr16:uid="{0B53093A-ADEA-4426-9B10-4ED2FD427DC4}" keepAlive="1" name="Query - figure (3)" description="Connection to the 'figure (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" keepAlive="1" name="Query - figure (3)" description="Connection to the 'figure (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [figure (3)]"/>
   </connection>
-  <connection id="4" xr16:uid="{F7C6C4C0-FE34-4CB2-892C-0A309A11EA1B}" keepAlive="1" name="Query - figure_k" description="Connection to the 'figure_k' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" keepAlive="1" name="Query - figure_k" description="Connection to the 'figure_k' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure_k;Extended Properties=&quot;&quot;" command="SELECT * FROM [figure_k]"/>
   </connection>
-  <connection id="5" xr16:uid="{E515EB1B-59E5-41A6-B869-7CF34942958D}" keepAlive="1" name="Query - figure_n" description="Connection to the 'figure_n' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" keepAlive="1" name="Query - figure_n" description="Connection to the 'figure_n' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure_n;Extended Properties=&quot;&quot;" command="SELECT * FROM [figure_n]"/>
   </connection>
-  <connection id="6" xr16:uid="{CA56593A-A4D4-49DE-A8A1-69B4F5A8CE8F}" keepAlive="1" name="Query - result" description="Connection to the 'result' query in the workbook." type="5" refreshedVersion="6" background="1">
+  <connection id="6" keepAlive="1" name="Query - result" description="Connection to the 'result' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result;Extended Properties=&quot;&quot;" command="SELECT * FROM [result]"/>
   </connection>
-  <connection id="7" xr16:uid="{A6E409F7-F55E-430D-83F0-F0A4F7D294EB}" keepAlive="1" name="Query - result (2)" description="Connection to the 'result (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" keepAlive="1" name="Query - result (2)" description="Connection to the 'result (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (2)]"/>
   </connection>
-  <connection id="8" xr16:uid="{420A31C0-E3D1-4044-ADA3-9B557AE783C0}" keepAlive="1" name="Query - result (3)" description="Connection to the 'result (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" keepAlive="1" name="Query - result (3)" description="Connection to the 'result (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (3)]"/>
   </connection>
-  <connection id="9" xr16:uid="{BE37E51B-C7E9-4FBD-A347-EBA78355F740}" keepAlive="1" name="Query - result (4)" description="Connection to the 'result (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" keepAlive="1" name="Query - result (4)" description="Connection to the 'result (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (4);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (4)]"/>
   </connection>
 </connections>
@@ -317,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,9 +452,6 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -465,9 +461,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -482,15 +475,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,14 +526,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -546,7 +537,12 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -562,7 +558,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -571,6 +566,9 @@
           <bgColor theme="9" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -608,6 +606,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -637,7 +638,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -649,9 +649,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1147,6 +1144,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1154,7 +1152,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1686,6 +1683,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1693,7 +1691,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1773,6 +1770,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2049,6 +2047,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2155,6 +2154,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2235,6 +2235,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2266,6 +2267,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2273,7 +2275,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2353,6 +2354,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2683,6 +2685,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2789,6 +2792,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2869,6 +2873,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2900,6 +2905,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2907,7 +2913,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2987,6 +2992,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3178,7 +3184,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3348,6 +3353,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3379,6 +3385,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3386,7 +3393,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3466,6 +3472,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3657,7 +3664,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3827,6 +3833,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3858,6 +3865,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3865,7 +3873,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3945,6 +3952,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4305,6 +4313,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4336,6 +4345,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4343,7 +4353,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4423,6 +4432,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4783,6 +4793,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4814,6 +4825,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4821,7 +4833,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9550,7 +9561,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="4" xr16:uid="{B17AC1F0-4E85-4664-AC6F-EBC22C7FACD7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9565,7 +9576,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="5" xr16:uid="{BB33D510-4167-43BB-B5A0-0B9A2B6E4888}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9580,7 +9591,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="7" xr16:uid="{765D266E-DFC3-4EE5-8835-B280EBE97D90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="39" unboundColumnsRight="5">
     <queryTableFields count="38">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9627,7 +9638,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="8" xr16:uid="{B692DF42-8623-43DB-A3E1-0D03F60C1280}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="40" unboundColumnsRight="4">
     <queryTableFields count="39">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9675,7 +9686,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{B786B6B4-DCB1-46E3-B293-EB96AD1BDD52}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9693,7 +9704,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{25661C99-7FE3-4CF5-AF06-26AF021B7706}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9711,7 +9722,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="9" xr16:uid="{6C0B22FA-8BB7-4C57-B244-025BA9C86323}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="40" unboundColumnsRight="4">
     <queryTableFields count="39">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9759,79 +9770,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C12FD80-D6AC-4936-ADC3-F371DAFD6EC3}" name="figure_k" displayName="figure_k" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F12" xr:uid="{64958F2C-7262-4709-B816-33F384720D32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="figure_k" displayName="figure_k" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F12"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7703565C-C23D-4891-BBAE-9F3B18162201}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{92005F45-2050-4C4A-93AA-904FF10B1F54}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{27CE3D96-2282-4E06-8FF7-522ACF77A695}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{5798CE4B-4B3E-47E7-856F-438C6BCF04D0}" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{0165E68C-073C-47BA-A269-04C9219C8CA8}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{059F8C46-B01E-4140-929A-955F69C0D9F0}" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
+    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35787F6B-EC13-4425-B806-3D609685B5E1}" name="figure_n" displayName="figure_n" ref="A1:F21" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{ACD61274-34CF-4B36-82F1-28EF6165BB32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="figure_n" displayName="figure_n" ref="A1:F21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F21"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D7168F20-FDAE-4F09-B196-F21905B9C28A}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{630FD2C2-D78C-4564-8240-3C7CF52BB530}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{5E0BA419-C5A3-4B03-9088-1F328F8CD0D9}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{AAC2B392-35D5-4F43-B5E7-E1FA3E5D4E44}" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{86803D6A-9086-4192-8738-6E5F606250E0}" uniqueName="5" name="E[ti]" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{891ECCC0-0231-4C8C-9A7E-F77AA7C78410}" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
+    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="E[ti]" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A9071284-539C-4DEA-9B2B-81AB93BF3D5C}" name="result__2" displayName="result__2" ref="A3:AL23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A3:AL23" xr:uid="{0F20E0D7-3ECD-402E-9984-4628FBDEC22F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="result__2" displayName="result__2" ref="A3:AL23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:AL23"/>
   <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{C04280DC-AD55-4E8D-8CD2-3896684EABCF}" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{EDB3F45D-0E17-481C-AB93-C547F76607C6}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{68BD7E3E-CEF9-4242-86E2-5B8D51069F45}" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{BE475316-62C8-4A4A-BE5F-1B1810F81A37}" uniqueName="4" name="n1" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{2122724A-ED4B-410D-B2CD-E1F59A98389B}" uniqueName="5" name="n2" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{4008F896-3583-4B12-BC42-AA04B6128D36}" uniqueName="6" name="n3" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{662DC490-783A-4E6B-8B15-86D206D6C08D}" uniqueName="7" name="n4" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{08B7F370-A731-4840-BF9C-F7EF83AE77E7}" uniqueName="8" name="n5" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{A832B831-99DC-4253-8C67-206566283871}" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{3AA6C427-A957-41D0-A713-2E542149FB12}" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{3A6B4C81-3157-415D-9D31-E21F7C10EEA7}" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{ADF7C98E-24A0-4F82-BA88-4C84E6FC19FB}" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{1E54C5D2-559C-4D83-AECB-687289D20775}" uniqueName="13" name="lambda5" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{31CF8B4E-CDD3-4BF9-B3F2-D4A7E10410D9}" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{3256DC5B-5F4F-49A5-A621-E37E9A78802B}" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{7B916126-93D4-4B90-BDD4-76149FD162C4}" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{51C15ABC-0D55-49DB-B270-AC88E490E46A}" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{9E09B0C3-1BF6-4EFA-BD97-FC1484F59C22}" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{58D0241D-65EF-4E6C-BE10-46636A9863AC}" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{3A7FCBFE-2CC8-47E8-9E25-71CA7EF37F5B}" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{060ECF1C-5556-4151-B9CC-2A352CDAFB95}" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{E1F16207-A7B2-43E7-A12E-896F95AECE1B}" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{6662ABE4-32B3-495B-BCED-EF8588FE6196}" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{C1F44A19-F44B-46B6-8D86-133D73B783DC}" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{740D1B28-2FB6-4426-9C15-CB57E8F1514D}" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="32"/>
-    <tableColumn id="26" xr3:uid="{02D3B48B-9B40-4C6F-9C3B-3A251C5EA290}" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{FFC9371E-EE74-48FA-811F-42E8A06D7527}" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{7099452E-079A-4396-808E-05D51A9DCF4A}" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{B7F21EC2-6B91-44B1-A73F-DE9E3FF37A31}" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="31"/>
-    <tableColumn id="30" xr3:uid="{10844CF8-595C-4E4E-B0ED-59C66EF68ED2}" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{693DEDD5-09FE-4BFE-A63B-D51556485138}" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{DB52BFA1-29B9-4E27-8666-89A0716B22DD}" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{4A5DA15B-E3E8-4224-802C-2CBAB0E5E275}" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="30"/>
-    <tableColumn id="34" xr3:uid="{FB808069-9FCD-4F01-9A0E-A4AE90D54AD4}" uniqueName="34" name="MIN(E[T_i(K)])" queryTableFieldId="34" dataDxfId="26">
+    <tableColumn id="1" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="n1" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="n2" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="n3" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="n4" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="n5" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="lambda5" queryTableFieldId="13"/>
+    <tableColumn id="14" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
+    <tableColumn id="15" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
+    <tableColumn id="16" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
+    <tableColumn id="17" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="34"/>
+    <tableColumn id="18" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
+    <tableColumn id="19" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
+    <tableColumn id="20" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
+    <tableColumn id="21" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="33"/>
+    <tableColumn id="22" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
+    <tableColumn id="23" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
+    <tableColumn id="24" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
+    <tableColumn id="25" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="32"/>
+    <tableColumn id="26" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
+    <tableColumn id="27" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
+    <tableColumn id="28" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
+    <tableColumn id="29" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="31"/>
+    <tableColumn id="30" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
+    <tableColumn id="31" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
+    <tableColumn id="32" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
+    <tableColumn id="33" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="30"/>
+    <tableColumn id="34" uniqueName="34" name="MIN(E[T_i(K)])" queryTableFieldId="34" dataDxfId="29">
       <calculatedColumnFormula>MIN(N4,R4,V4,Z4,AD4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{5C1655CC-3180-4FA9-87DC-54D237027703}" uniqueName="35" name="I*" queryTableFieldId="35"/>
-    <tableColumn id="36" xr3:uid="{D2F2F3EC-CFB9-4E3E-BF4B-34C6BB8EACCB}" uniqueName="36" name="Pr[i* = MIN(E[T_i(K)])]" queryTableFieldId="36" dataDxfId="29"/>
-    <tableColumn id="38" xr3:uid="{BD68A8EC-C615-405F-A0BD-77D6A7A4920D}" uniqueName="38" name="Ibest" queryTableFieldId="38"/>
-    <tableColumn id="37" xr3:uid="{13945DD6-0FD3-4C41-980A-2CAA136E507E}" uniqueName="37" name="Pbest[MAX(P[i*=j])" queryTableFieldId="37" dataDxfId="28">
+    <tableColumn id="35" uniqueName="35" name="I*" queryTableFieldId="35"/>
+    <tableColumn id="36" uniqueName="36" name="Pr[i* = MIN(E[T_i(K)])]" queryTableFieldId="36" dataDxfId="28"/>
+    <tableColumn id="38" uniqueName="38" name="Ibest" queryTableFieldId="38"/>
+    <tableColumn id="37" uniqueName="37" name="Pbest[MAX(P[i*=j])" queryTableFieldId="37" dataDxfId="27">
       <calculatedColumnFormula>MAX(O4,S4,W4,AA4,AE4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9840,52 +9851,52 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{59CA9B76-1108-425A-ADD5-AD9A2C93C151}" name="result__3" displayName="result__3" ref="A3:AM14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="25">
-  <autoFilter ref="A3:AM14" xr:uid="{F542CFE7-4738-446C-820A-1039CA82F5D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="result__3" displayName="result__3" ref="A3:AM14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A3:AM14"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{F42EBF62-2DDE-454E-A5C6-304E63CE0392}" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{D83C3CB7-658F-4A2F-8384-F188E9921F61}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{BCEFCB65-4E02-4FDF-A611-2227BEE40AE1}" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{B1FAFE04-E85A-4DDC-8C75-6CB3332DEC92}" uniqueName="4" name="n1" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{20C63E76-9265-49BE-B7FD-2DD8BCE5B36D}" uniqueName="5" name="n2" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{1BB37523-2A56-4CEF-AF36-26F806A5F982}" uniqueName="6" name="n3" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{4D5B8AE2-69E5-4304-A163-34A3BA635F27}" uniqueName="7" name="n4" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{548583A0-8BDF-479A-9FFF-AEC3BB5115A0}" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{578FEFDA-4433-4F1F-91E6-6FA512E52DC4}" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{FF50F194-6884-468B-B15A-A72C35251043}" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{A92E4F4E-CBBD-4B5D-A997-0196E0424836}" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{FF3FF57A-106F-4B44-B814-E5598B4B2527}" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{F35B0FAF-D8EF-4FE4-B204-86C54FFF5D07}" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{435BF57D-8019-4D26-A391-2B0B606ABBDD}" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="34" dataDxfId="11">
+    <tableColumn id="1" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="n1" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="n2" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="n3" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="n4" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="25"/>
+    <tableColumn id="9" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="24"/>
+    <tableColumn id="34" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="34" dataDxfId="23">
       <calculatedColumnFormula>MIN((D4/I4),(E4/J4),(F4/K4),(G4/L4),(H4/M4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{A8397332-B545-479B-8152-4A09680ACF65}" uniqueName="35" name="i*=Ibest" queryTableFieldId="35" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{7B89F506-6F58-40D4-B605-112159C8CF88}" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{C6CB37B0-BADC-4360-BEF9-182BF1322058}" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{3EB460F3-D6FD-4D05-88C0-9B270DD5679F}" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{15D4E639-B923-49FB-B123-AC230BDFFFB3}" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{3C91CDC3-0E22-4A93-A441-596835DDC3A9}" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{F197F435-3C14-4B68-998E-0C26941231B4}" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{CC16EF2D-18E2-446B-A129-C32305D15863}" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{04934528-BBB4-4B39-92A1-4C98CBD00C71}" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{9CF80C65-6413-4C66-B382-DB9EC0E62429}" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{193CD4A1-6BFA-41CF-B095-0AA1334445AE}" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{1AF6837C-202E-447F-90CF-04675462B254}" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{CCB24F0A-0F43-4705-A45C-4CB465F134B2}" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="19"/>
-    <tableColumn id="26" xr3:uid="{18749997-FA43-4473-B7AA-C325303E6AED}" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{67BC293B-AB81-4B39-A70B-98387C6E6303}" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{2371D300-4CBA-400F-9E97-B1180AA0FAAC}" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{A4A09E7F-686C-485C-A8DD-02596961C344}" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{4C7108A1-9D76-4686-AF8E-3B9E9A9E0308}" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{0E7BF559-FEA0-4ED0-9708-D24250101EE4}" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{BE09426C-D104-4D9A-A55F-F29735F4F644}" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{F82A2354-ADA6-43A5-B24C-F9D41482B7EF}" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="17"/>
-    <tableColumn id="36" xr3:uid="{7AEB74EE-3FD0-4A07-A74D-9281C5A901D3}" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="16">
+    <tableColumn id="35" uniqueName="35" name="i*=Ibest" queryTableFieldId="35" dataDxfId="22"/>
+    <tableColumn id="14" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
+    <tableColumn id="15" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
+    <tableColumn id="16" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
+    <tableColumn id="17" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="21"/>
+    <tableColumn id="18" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
+    <tableColumn id="19" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
+    <tableColumn id="20" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
+    <tableColumn id="21" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="20"/>
+    <tableColumn id="22" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
+    <tableColumn id="23" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
+    <tableColumn id="24" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
+    <tableColumn id="25" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="19"/>
+    <tableColumn id="26" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
+    <tableColumn id="27" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
+    <tableColumn id="28" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
+    <tableColumn id="29" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="18"/>
+    <tableColumn id="30" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
+    <tableColumn id="31" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
+    <tableColumn id="32" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
+    <tableColumn id="33" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="17"/>
+    <tableColumn id="36" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="16">
       <calculatedColumnFormula>MIN(P4,T4,X4,AB4,AF4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{EF036AB4-1DC9-4588-BBB4-9BC041A7E440}" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{89509077-F104-496B-B433-394D47E36599}" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38" dataDxfId="15"/>
-    <tableColumn id="39" xr3:uid="{3045F188-5663-4A2E-A628-63EF206BB449}" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="14">
+    <tableColumn id="37" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
+    <tableColumn id="38" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38" dataDxfId="15"/>
+    <tableColumn id="39" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="14">
       <calculatedColumnFormula>AG4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9894,88 +9905,88 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1EF04A0D-1519-4217-A003-41864B59781B}" name="figure__2" displayName="figure__2" ref="A1:I12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I12" xr:uid="{CDE059F5-BA5F-4DB1-8028-4DA1947DAB12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="figure__2" displayName="figure__2" ref="A1:I12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I12"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AD570F7B-C470-4924-8A8B-E06C96337761}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{A713512A-479E-4BF5-88F8-9E4FB49D2CC8}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{DC248715-2CD7-4FAD-AE06-66BE6CD808D7}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{250A3E58-F5F2-4ACF-AD5B-8C1B7F482E1D}" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{080D0760-C19D-44AA-BE26-09CA730AC7C2}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{AE2E9B9F-66A5-4413-B38E-7671D84C6B02}" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{EA97A02F-A015-4234-84D5-5DDE1244E985}" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{10D5C975-548A-429A-971E-09E59CE60777}" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{F520C94E-0988-4216-9197-C0FC645C74B5}" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="27"/>
+    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A588175-D615-44F1-A24A-F33E5EE1CD56}" name="figure__3" displayName="figure__3" ref="A1:I21" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I21" xr:uid="{BA361301-2228-4354-BC65-E94AA9A0BB42}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="figure__3" displayName="figure__3" ref="A1:I21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I21"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D9B0E1C7-F31D-4C22-B3A6-96BA033275B4}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7E0F7380-423B-4050-BD6B-D00528C21D3E}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{1EE74AA6-A472-403B-A0D8-13B939340068}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{6F3A1D66-9936-46BF-BE55-497152B8942A}" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{9CFA049A-CB27-4241-8ECD-0CE832569DE6}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{63232B57-0950-4FE4-AE0D-B8837BE3E7BC}" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{C906B783-C08D-486D-93CC-240739521FEB}" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{3071B01E-2649-47EC-8E07-E6FC2D04E6FF}" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{86C39C14-DCD3-4332-906B-F742B4477AAB}" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="13"/>
+    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
+    <tableColumn id="9" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCC1E62F-EA19-49F9-8B0A-D6F9DA162D2C}" name="result__4" displayName="result__4" ref="A3:AM28" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A3:AM28" xr:uid="{AE8EE4F7-C218-4E18-B45A-6E159B15A49D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="result__4" displayName="result__4" ref="A3:AM28" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A3:AM28"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{BA1D1D17-62B7-4DFC-ADDA-DB679DD957F7}" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{E3FD8275-670E-445E-9117-C0F1370F7280}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{38F13231-47AD-47E4-B342-D3310E81A431}" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{52C2F51F-F698-49F0-9C89-5C8B38248D00}" uniqueName="4" name="n1" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00CF8CD2-9DCD-4618-AF5E-DE944F29C153}" uniqueName="5" name="n2" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{643D317B-DBF3-443B-9E10-DB1CB2E9E091}" uniqueName="6" name="n3" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{061D1E80-7F91-402C-A59B-3F21F92A6979}" uniqueName="7" name="n4" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{25C02C92-D107-448A-916F-3205C38806D9}" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{160BDE47-C8A4-4D26-B319-E640BA42C2A8}" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{01C9D47D-C958-4E61-9F7B-B044C223467F}" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{5ED1F779-09E9-4D3D-8B92-CA585541FB75}" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{DCEF0356-B5C5-44D1-9368-7F1062B1B637}" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
-    <tableColumn id="13" xr3:uid="{E742DDAB-DDAF-4738-9FEB-5A516BAA6A25}" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{B5E9B09A-5486-4EF1-BD00-F2D1204F23F0}" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="35" dataDxfId="9">
+    <tableColumn id="1" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="n1" queryTableFieldId="4"/>
+    <tableColumn id="5" uniqueName="5" name="n2" queryTableFieldId="5"/>
+    <tableColumn id="6" uniqueName="6" name="n3" queryTableFieldId="6"/>
+    <tableColumn id="7" uniqueName="7" name="n4" queryTableFieldId="7"/>
+    <tableColumn id="8" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
+    <tableColumn id="10" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
+    <tableColumn id="11" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
+    <tableColumn id="12" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
+    <tableColumn id="13" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="9"/>
+    <tableColumn id="34" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="35" dataDxfId="8">
       <calculatedColumnFormula>MIN((D4/I4),(E4/J4),(F4/K4),(G4/L4),(H4/M4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{F83F7D52-3DC5-44DD-A7E8-8A767B23D9A1}" uniqueName="35" name="i*=Ibest" queryTableFieldId="34" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{76EB8C86-4F29-42D1-85C1-2E23B820F7B3}" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
-    <tableColumn id="15" xr3:uid="{940792B8-09D7-412D-B406-3256A31BC0DF}" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
-    <tableColumn id="16" xr3:uid="{0F1AE7F9-A4C4-4270-93CB-F6148F8EFD2C}" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{8A906066-2FE5-45F9-83B6-67D2BAAA9A45}" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{95216F50-D696-4D8C-A7E6-11DF6EB8B0C0}" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{D44C2EDC-E334-4379-9E91-43E12ACFD450}" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
-    <tableColumn id="20" xr3:uid="{54731ED6-28CA-4485-AE8B-D477B36B7ACA}" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
-    <tableColumn id="21" xr3:uid="{9AA21E3B-EA0B-4223-A96C-6B82157F358E}" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{57CD687D-E341-4CBB-8DDB-5BDD41D03BDA}" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
-    <tableColumn id="23" xr3:uid="{A3246589-F3C7-4DC8-B4B7-427B0F7B175F}" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
-    <tableColumn id="24" xr3:uid="{2B685D75-8C1B-47D3-B9B4-0937DE0579EB}" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
-    <tableColumn id="25" xr3:uid="{049AC432-1CEB-4378-A41D-EB7E8B82A3AB}" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{B8296EEC-5235-4EB2-835C-DC813CF03CF6}" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{E833FF83-46C6-47C5-99EF-0534031B423C}" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
-    <tableColumn id="28" xr3:uid="{815453FF-DEB6-45D7-85E1-5CBFF14C1C81}" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
-    <tableColumn id="29" xr3:uid="{C9349657-7561-4176-A5AB-C71B1ED00D08}" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="3"/>
-    <tableColumn id="30" xr3:uid="{45F4885E-2F4E-4F21-A6F5-40E3E9E35E25}" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
-    <tableColumn id="31" xr3:uid="{7D437760-4BA1-4A3B-B138-3AA880DB1655}" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{8FD5C62D-D2F1-43C0-BD73-C79F0395FEDA}" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{9BE2061F-0DA0-43AB-897E-5FE9F1C0C622}" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{15875C6E-84E3-4C02-978B-7940FCDBBE57}" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="1">
+    <tableColumn id="35" uniqueName="35" name="i*=Ibest" queryTableFieldId="34" dataDxfId="7"/>
+    <tableColumn id="14" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
+    <tableColumn id="15" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
+    <tableColumn id="16" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
+    <tableColumn id="17" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="6"/>
+    <tableColumn id="18" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
+    <tableColumn id="19" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
+    <tableColumn id="20" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
+    <tableColumn id="21" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="5"/>
+    <tableColumn id="22" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
+    <tableColumn id="23" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
+    <tableColumn id="24" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
+    <tableColumn id="25" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="4"/>
+    <tableColumn id="26" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
+    <tableColumn id="27" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
+    <tableColumn id="28" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
+    <tableColumn id="29" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="3"/>
+    <tableColumn id="30" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
+    <tableColumn id="31" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
+    <tableColumn id="32" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
+    <tableColumn id="33" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="2"/>
+    <tableColumn id="36" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="1">
       <calculatedColumnFormula>MIN(P4,T4,X4,AB4,AF4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{652560C4-DB1A-4CE3-B8AF-164CCFF756B5}" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
-    <tableColumn id="38" xr3:uid="{1C036763-8DF8-45E3-A99D-391D235D38AD}" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38"/>
-    <tableColumn id="39" xr3:uid="{79A2274E-3A87-43FD-ACA6-9412E8B33AFD}" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="0">
+    <tableColumn id="37" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
+    <tableColumn id="38" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38"/>
+    <tableColumn id="39" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="0">
       <calculatedColumnFormula>AG4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10279,24 +10290,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C11CDEB-39D3-4F74-ABD4-58384451028F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10316,7 +10327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -10336,7 +10347,7 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -10356,7 +10367,7 @@
         <v>0.55010000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -10376,7 +10387,7 @@
         <v>0.61739999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -10396,7 +10407,7 @@
         <v>0.6552</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -10416,7 +10427,7 @@
         <v>0.68969999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -10436,7 +10447,7 @@
         <v>0.71309999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -10456,7 +10467,7 @@
         <v>0.74550000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -10476,7 +10487,7 @@
         <v>0.76749999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -10496,7 +10507,7 @@
         <v>0.7873</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -10516,7 +10527,7 @@
         <v>0.79079999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -10546,23 +10557,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5EAE14-51B1-4763-9C3B-26AFE24EDB4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10582,7 +10593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -10602,7 +10613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -10622,7 +10633,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -10642,7 +10653,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -10662,7 +10673,7 @@
         <v>0.63380000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -10682,7 +10693,7 @@
         <v>0.55989999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -10702,7 +10713,7 @@
         <v>0.49270000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -10722,7 +10733,7 @@
         <v>0.4466</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -10742,7 +10753,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -10762,7 +10773,7 @@
         <v>0.37809999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -10782,7 +10793,7 @@
         <v>0.34639999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -10802,7 +10813,7 @@
         <v>0.32040000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -10822,7 +10833,7 @@
         <v>0.3044</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -10842,7 +10853,7 @@
         <v>0.2858</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -10862,7 +10873,7 @@
         <v>0.26140000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -10882,7 +10893,7 @@
         <v>0.26079999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -10902,7 +10913,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -10922,7 +10933,7 @@
         <v>0.2276</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -10942,7 +10953,7 @@
         <v>0.2117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -10962,7 +10973,7 @@
         <v>0.21179999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -10993,7 +11004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE665407-2038-4176-9208-8345A7231760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11003,190 +11014,190 @@
       <selection activeCell="AK24" sqref="AK24:AL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="6" width="4.88671875" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1"/>
-    <col min="14" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.77734375" customWidth="1"/>
-    <col min="36" max="36" width="20.77734375" customWidth="1"/>
-    <col min="37" max="37" width="12.21875" customWidth="1"/>
-    <col min="38" max="38" width="19.21875" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" customWidth="1"/>
+    <col min="36" max="36" width="20.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" customWidth="1"/>
+    <col min="38" max="38" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.35">
-      <c r="N2" s="2" t="s">
+    <row r="2" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="10" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
     </row>
-    <row r="3" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -11235,7 +11246,7 @@
       <c r="P4">
         <v>1.2160841627801001E-2</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>1.1443149999999999E-2</v>
       </c>
       <c r="R4">
@@ -11247,7 +11258,7 @@
       <c r="T4">
         <v>6.6567547727480997E-2</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <v>3.8570559999999997E-2</v>
       </c>
       <c r="V4">
@@ -11259,7 +11270,7 @@
       <c r="X4">
         <v>0.164024920493827</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>3.20025E-3</v>
       </c>
       <c r="Z4">
@@ -11271,19 +11282,19 @@
       <c r="AB4">
         <v>0.29738076239597599</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="4">
         <v>1.304981E-2</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="7">
         <v>7.2999999999999999E-5</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="9">
         <v>0.4667</v>
       </c>
       <c r="AF4">
         <v>0.45986592775491503</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AG4" s="4">
         <v>1.4861009999999999E-2</v>
       </c>
       <c r="AH4">
@@ -11304,7 +11315,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -11353,7 +11364,7 @@
       <c r="P5">
         <v>2.70605454211E-3</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>7.1670929999999994E-2</v>
       </c>
       <c r="R5">
@@ -11365,10 +11376,10 @@
       <c r="T5">
         <v>3.6390635995792002E-2</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>2.2241E-2</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>6.7000000000000002E-5</v>
       </c>
       <c r="W5">
@@ -11377,7 +11388,7 @@
       <c r="X5">
         <v>0.132697733069568</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>4.50447E-3</v>
       </c>
       <c r="Z5">
@@ -11389,32 +11400,32 @@
       <c r="AB5">
         <v>0.298821666820481</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <v>1.7474190000000001E-2</v>
       </c>
       <c r="AD5">
         <v>1.45E-4</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="9">
         <v>0.53420000000000001</v>
       </c>
       <c r="AF5">
         <v>0.52938390957204895</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="4">
         <v>9.0975399999999994E-3</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="AI5" s="13">
+      <c r="AI5" s="11">
         <v>3</v>
       </c>
       <c r="AJ5">
         <v>0.1321</v>
       </c>
-      <c r="AK5" s="13">
+      <c r="AK5" s="11">
         <v>5</v>
       </c>
       <c r="AL5">
@@ -11422,7 +11433,7 @@
         <v>0.53420000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -11465,25 +11476,25 @@
       <c r="N6">
         <v>5.7499999999999999E-4</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>8.7546979626999994E-5</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>1</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>0.503</v>
       </c>
       <c r="T6">
         <v>0.51196475854290502</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <v>1.7510499999999998E-2</v>
       </c>
       <c r="V6">
@@ -11495,7 +11506,7 @@
       <c r="X6">
         <v>0.24291797274805699</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>2.1322899999999998E-3</v>
       </c>
       <c r="Z6">
@@ -11507,7 +11518,7 @@
       <c r="AB6">
         <v>0.145964725539806</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="4">
         <v>3.8607099999999998E-2</v>
       </c>
       <c r="AD6">
@@ -11519,7 +11530,7 @@
       <c r="AF6">
         <v>9.9064996189605001E-2</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" s="4">
         <v>3.9721439999999997E-2</v>
       </c>
       <c r="AH6">
@@ -11540,7 +11551,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -11589,10 +11600,10 @@
       <c r="P7">
         <v>0.17138268701749401</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>5.1246060000000003E-2</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <v>6.7999999999999999E-5</v>
       </c>
       <c r="S7">
@@ -11601,7 +11612,7 @@
       <c r="T7">
         <v>0.19784648295537599</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>2.3494E-4</v>
       </c>
       <c r="V7">
@@ -11613,7 +11624,7 @@
       <c r="X7">
         <v>0.20674784064705601</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>4.5845299999999999E-3</v>
       </c>
       <c r="Z7">
@@ -11625,19 +11636,19 @@
       <c r="AB7">
         <v>0.21081136670737899</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="4">
         <v>1.607424E-2</v>
       </c>
       <c r="AD7">
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="9">
         <v>0.21959999999999999</v>
       </c>
       <c r="AF7">
         <v>0.213211622672696</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="4">
         <v>2.9962610000000001E-2</v>
       </c>
       <c r="AH7">
@@ -11658,7 +11669,7 @@
         <v>0.21959999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -11707,7 +11718,7 @@
       <c r="P8">
         <v>1.6243709035099999E-4</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>0.38437705</v>
       </c>
       <c r="R8">
@@ -11719,7 +11730,7 @@
       <c r="T8">
         <v>1.2211944454301E-2</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <v>6.6487729999999995E-2</v>
       </c>
       <c r="V8">
@@ -11731,7 +11742,7 @@
       <c r="X8">
         <v>8.900993390254E-2</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>2.460474E-2</v>
       </c>
       <c r="Z8">
@@ -11743,19 +11754,19 @@
       <c r="AB8">
         <v>0.284031027981892</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="4">
         <v>1.2565430000000001E-2</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="7">
         <v>1.4799999999999999E-4</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="9">
         <v>0.60970000000000002</v>
       </c>
       <c r="AF8">
         <v>0.61458465657091599</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AG8" s="4">
         <v>7.9479000000000008E-3</v>
       </c>
       <c r="AH8">
@@ -11776,7 +11787,7 @@
         <v>0.60970000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -11819,25 +11830,25 @@
       <c r="N9">
         <v>1.5790000000000001E-3</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>1.4902605180000001E-6</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>1</v>
       </c>
       <c r="R9">
         <v>1.1360000000000001E-3</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>2.8E-3</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>2.1216000756329998E-3</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>0.31975862999999999</v>
       </c>
       <c r="V9">
@@ -11849,7 +11860,7 @@
       <c r="X9">
         <v>4.7152233571789999E-2</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="4">
         <v>5.2006730000000001E-2</v>
       </c>
       <c r="Z9">
@@ -11861,19 +11872,19 @@
       <c r="AB9">
         <v>0.24971623378303501</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" s="4">
         <v>4.47001E-3</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="7">
         <v>3.19E-4</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE9" s="9">
         <v>0.70389999999999997</v>
       </c>
       <c r="AF9">
         <v>0.70100844230902404</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AG9" s="4">
         <v>4.1248500000000002E-3</v>
       </c>
       <c r="AH9">
@@ -11894,7 +11905,7 @@
         <v>0.70389999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -11934,16 +11945,16 @@
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>1.05E-4</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="9">
         <v>0.33910000000000001</v>
       </c>
       <c r="P10">
         <v>0.34026785930089898</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>3.43218E-3</v>
       </c>
       <c r="R10">
@@ -11955,7 +11966,7 @@
       <c r="T10">
         <v>0.22424345192432199</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <v>3.1409840000000001E-2</v>
       </c>
       <c r="V10">
@@ -11967,7 +11978,7 @@
       <c r="X10">
         <v>0.171958055258781</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>4.095153E-2</v>
       </c>
       <c r="Z10">
@@ -11979,7 +11990,7 @@
       <c r="AB10">
         <v>0.141664282597803</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" s="4">
         <v>1.1596600000000001E-3</v>
       </c>
       <c r="AD10">
@@ -11991,7 +12002,7 @@
       <c r="AF10">
         <v>0.121866350918195</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AG10" s="4">
         <v>1.094354E-2</v>
       </c>
       <c r="AH10">
@@ -12012,7 +12023,7 @@
         <v>0.33910000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -12052,7 +12063,7 @@
       <c r="M11">
         <v>5</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>1.93E-4</v>
       </c>
       <c r="O11">
@@ -12061,7 +12072,7 @@
       <c r="P11">
         <v>8.1044462187481001E-2</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>2.1524749999999999E-2</v>
       </c>
       <c r="R11">
@@ -12073,7 +12084,7 @@
       <c r="T11">
         <v>0.15641257558908001</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <v>2.47694E-3</v>
       </c>
       <c r="V11">
@@ -12085,7 +12096,7 @@
       <c r="X11">
         <v>0.212019955999008</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="4">
         <v>9.3389500000000004E-3</v>
       </c>
       <c r="Z11">
@@ -12097,19 +12108,19 @@
       <c r="AB11">
         <v>0.25644456137647398</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="4">
         <v>5.6330399999999997E-3</v>
       </c>
       <c r="AD11">
         <v>2.33E-4</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AE11" s="9">
         <v>0.2949</v>
       </c>
       <c r="AF11">
         <v>0.29407844484795698</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AG11" s="4">
         <v>2.7936599999999999E-3</v>
       </c>
       <c r="AH11">
@@ -12130,7 +12141,7 @@
         <v>0.2949</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -12173,13 +12184,13 @@
       <c r="N12">
         <v>1.242E-3</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>0</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>2.8844184620000001E-6</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="R12">
@@ -12191,7 +12202,7 @@
       <c r="T12">
         <v>2.7048518000450002E-3</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <v>7.5734940000000001E-2</v>
       </c>
       <c r="V12">
@@ -12203,10 +12214,10 @@
       <c r="X12">
         <v>5.1449031372046997E-2</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="4">
         <v>4.3751430000000001E-2</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="7">
         <v>3.5399999999999999E-4</v>
       </c>
       <c r="AA12">
@@ -12215,32 +12226,32 @@
       <c r="AB12">
         <v>0.25456927020294901</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" s="4">
         <v>1.8976090000000001E-2</v>
       </c>
       <c r="AD12">
         <v>3.57E-4</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="9">
         <v>0.68440000000000001</v>
       </c>
       <c r="AF12">
         <v>0.69127396220649795</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AG12" s="4">
         <v>9.9439000000000003E-3</v>
       </c>
       <c r="AH12">
         <f t="shared" si="0"/>
         <v>3.5399999999999999E-4</v>
       </c>
-      <c r="AI12" s="13">
+      <c r="AI12" s="11">
         <v>4</v>
       </c>
       <c r="AJ12">
         <v>0.25940000000000002</v>
       </c>
-      <c r="AK12" s="13">
+      <c r="AK12" s="11">
         <v>5</v>
       </c>
       <c r="AL12">
@@ -12248,7 +12259,7 @@
         <v>0.68440000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -12291,25 +12302,25 @@
       <c r="N13">
         <v>1.902E-3</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>1.0840507599999999E-7</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>1</v>
       </c>
       <c r="R13">
         <v>9.2900000000000003E-4</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>8.1536922909999996E-4</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>0.34908206000000003</v>
       </c>
       <c r="V13">
@@ -12321,7 +12332,7 @@
       <c r="X13">
         <v>3.3554170301161E-2</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="4">
         <v>9.4002329999999995E-2</v>
       </c>
       <c r="Z13">
@@ -12333,19 +12344,19 @@
       <c r="AB13">
         <v>0.231075974914254</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AC13" s="4">
         <v>3.5814949999999998E-2</v>
       </c>
-      <c r="AD13" s="8">
+      <c r="AD13" s="7">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AE13" s="9">
         <v>0.74570000000000003</v>
       </c>
       <c r="AF13">
         <v>0.73455437715040905</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AG13" s="4">
         <v>1.5173310000000001E-2</v>
       </c>
       <c r="AH13">
@@ -12366,7 +12377,7 @@
         <v>0.74570000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -12409,28 +12420,28 @@
       <c r="N14">
         <v>1.65E-3</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>0</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>5.6999999999999997E-14</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>1</v>
       </c>
       <c r="R14">
         <v>3.57E-4</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="9">
         <v>0.62409999999999999</v>
       </c>
       <c r="T14">
         <v>0.63669553471458096</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="4">
         <v>1.9782669999999999E-2</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="7">
         <v>2.14E-4</v>
       </c>
       <c r="W14">
@@ -12439,7 +12450,7 @@
       <c r="X14">
         <v>0.215640028695844</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="4">
         <v>3.2739610000000002E-2</v>
       </c>
       <c r="Z14">
@@ -12451,7 +12462,7 @@
       <c r="AB14">
         <v>9.6674792152090003E-2</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC14" s="4">
         <v>4.6808559999999999E-2</v>
       </c>
       <c r="AD14">
@@ -12463,20 +12474,20 @@
       <c r="AF14">
         <v>5.0989644437429003E-2</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AG14" s="4">
         <v>1.981492E-2</v>
       </c>
       <c r="AH14">
         <f t="shared" si="0"/>
         <v>2.14E-4</v>
       </c>
-      <c r="AI14" s="13">
+      <c r="AI14" s="11">
         <v>3</v>
       </c>
       <c r="AJ14">
         <v>0.22270000000000001</v>
       </c>
-      <c r="AK14" s="13">
+      <c r="AK14" s="11">
         <v>1</v>
       </c>
       <c r="AL14">
@@ -12484,7 +12495,7 @@
         <v>0.62409999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -12527,25 +12538,25 @@
       <c r="N15">
         <v>1.261E-3</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>6.952586478815E-3</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>0.2225666</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <v>4.73E-4</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="9">
         <v>0.51480000000000004</v>
       </c>
       <c r="T15">
         <v>0.50409014660879603</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="4">
         <v>2.124591E-2</v>
       </c>
       <c r="V15">
@@ -12557,7 +12568,7 @@
       <c r="X15">
         <v>0.24749032859443801</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="4">
         <v>4.2790880000000003E-2</v>
       </c>
       <c r="Z15">
@@ -12569,7 +12580,7 @@
       <c r="AB15">
         <v>0.14578134083701799</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AC15" s="4">
         <v>1.0161389999999999E-2</v>
       </c>
       <c r="AD15">
@@ -12581,7 +12592,7 @@
       <c r="AF15">
         <v>9.5685597480933998E-2</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AG15" s="4">
         <v>1.93966E-3</v>
       </c>
       <c r="AH15">
@@ -12602,7 +12613,7 @@
         <v>0.51480000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -12645,25 +12656,25 @@
       <c r="N16">
         <v>1.6299999999999999E-3</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>0</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>5.6537147000000002E-8</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16">
         <v>8.6700000000000004E-4</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>6.4399297509700002E-4</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>0.53415641000000003</v>
       </c>
       <c r="V16">
@@ -12675,7 +12686,7 @@
       <c r="X16">
         <v>3.0875358775451001E-2</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="4">
         <v>8.0172629999999995E-2</v>
       </c>
       <c r="Z16">
@@ -12687,19 +12698,19 @@
       <c r="AB16">
         <v>0.22663309909764701</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" s="4">
         <v>5.8728999999999997E-4</v>
       </c>
-      <c r="AD16" s="8">
+      <c r="AD16" s="7">
         <v>3.1599999999999998E-4</v>
       </c>
-      <c r="AE16" s="11">
+      <c r="AE16" s="9">
         <v>0.74480000000000002</v>
       </c>
       <c r="AF16">
         <v>0.74184749261465799</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AG16" s="4">
         <v>3.9799400000000004E-3</v>
       </c>
       <c r="AH16">
@@ -12720,7 +12731,7 @@
         <v>0.74480000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -12763,25 +12774,25 @@
       <c r="N17">
         <v>3.0509999999999999E-3</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>0</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>6.1383499999999998E-10</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>1</v>
       </c>
       <c r="R17">
         <v>1.745E-3</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="5">
         <v>1E-4</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>1.2658780090799999E-4</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>0.21003446000000001</v>
       </c>
       <c r="V17">
@@ -12793,7 +12804,7 @@
       <c r="X17">
         <v>1.7520907649206999E-2</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="4">
         <v>6.9007599999999997E-3</v>
       </c>
       <c r="Z17">
@@ -12805,19 +12816,19 @@
       <c r="AB17">
         <v>0.19806096360053599</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AC17" s="4">
         <v>7.8812299999999995E-3</v>
       </c>
-      <c r="AD17" s="8">
+      <c r="AD17" s="7">
         <v>5.9900000000000003E-4</v>
       </c>
-      <c r="AE17" s="11">
+      <c r="AE17" s="9">
         <v>0.78600000000000003</v>
       </c>
       <c r="AF17">
         <v>0.78429154033551396</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AG17" s="4">
         <v>2.1783499999999999E-3</v>
       </c>
       <c r="AH17">
@@ -12838,7 +12849,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -12881,16 +12892,16 @@
       <c r="N18">
         <v>8.1899999999999996E-4</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="9">
         <v>0.32600000000000001</v>
       </c>
       <c r="P18">
         <v>0.32447562320329898</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>4.6979700000000001E-3</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>4.0499999999999998E-4</v>
       </c>
       <c r="S18">
@@ -12899,7 +12910,7 @@
       <c r="T18">
         <v>0.22348352316481501</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <v>2.378912E-2</v>
       </c>
       <c r="V18">
@@ -12911,7 +12922,7 @@
       <c r="X18">
         <v>0.17582455100562899</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="4">
         <v>2.0614589999999999E-2</v>
       </c>
       <c r="Z18">
@@ -12923,7 +12934,7 @@
       <c r="AB18">
         <v>0.14751304318719699</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" s="4">
         <v>5.0931379999999998E-2</v>
       </c>
       <c r="AD18">
@@ -12935,20 +12946,20 @@
       <c r="AF18">
         <v>0.12870325943906</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AG18" s="4">
         <v>3.3384860000000002E-2</v>
       </c>
       <c r="AH18">
         <f t="shared" si="0"/>
         <v>4.0499999999999998E-4</v>
       </c>
-      <c r="AI18" s="13">
+      <c r="AI18" s="11">
         <v>2</v>
       </c>
       <c r="AJ18">
         <v>0.2288</v>
       </c>
-      <c r="AK18" s="13">
+      <c r="AK18" s="11">
         <v>1</v>
       </c>
       <c r="AL18">
@@ -12956,7 +12967,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -13005,7 +13016,7 @@
       <c r="P19">
         <v>2.682092270381E-2</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>6.6331699999999993E-2</v>
       </c>
       <c r="R19">
@@ -13017,7 +13028,7 @@
       <c r="T19">
         <v>0.107339361414514</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="4">
         <v>1.8067570000000002E-2</v>
       </c>
       <c r="V19">
@@ -13029,7 +13040,7 @@
       <c r="X19">
         <v>0.19899256456809999</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="4">
         <v>6.1346190000000002E-2</v>
       </c>
       <c r="Z19">
@@ -13041,19 +13052,19 @@
       <c r="AB19">
         <v>0.289695056870724</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AC19" s="4">
         <v>6.92087E-3</v>
       </c>
-      <c r="AD19" s="8">
+      <c r="AD19" s="7">
         <v>8.8099999999999995E-4</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AE19" s="9">
         <v>0.36309999999999998</v>
       </c>
       <c r="AF19">
         <v>0.37715209444285103</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AG19" s="4">
         <v>3.7258430000000002E-2</v>
       </c>
       <c r="AH19">
@@ -13074,7 +13085,7 @@
         <v>0.36309999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -13117,13 +13128,13 @@
       <c r="N20">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>0</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>8.0846400000000003E-9</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>1</v>
       </c>
       <c r="R20">
@@ -13135,7 +13146,7 @@
       <c r="T20">
         <v>3.1916665949199998E-4</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="4">
         <v>6.00522E-2</v>
       </c>
       <c r="V20">
@@ -13147,7 +13158,7 @@
       <c r="X20">
         <v>2.4143919400884999E-2</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="4">
         <v>2.7173739999999998E-2</v>
       </c>
       <c r="Z20">
@@ -13159,19 +13170,19 @@
       <c r="AB20">
         <v>0.21385076109143</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AC20" s="4">
         <v>1.6136299999999999E-2</v>
       </c>
-      <c r="AD20" s="8">
+      <c r="AD20" s="7">
         <v>5.4600000000000004E-4</v>
       </c>
-      <c r="AE20" s="11">
+      <c r="AE20" s="9">
         <v>0.76449999999999996</v>
       </c>
       <c r="AF20">
         <v>0.76168614476355201</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AG20" s="4">
         <v>3.6942500000000001E-3</v>
       </c>
       <c r="AH20">
@@ -13192,7 +13203,7 @@
         <v>0.76449999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -13235,25 +13246,25 @@
       <c r="N21">
         <v>3.5249999999999999E-3</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>0</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>4.7242000000000001E-11</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>1</v>
       </c>
       <c r="R21">
         <v>1.294E-3</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <v>0</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>5.0707102649999999E-5</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="6">
         <v>1</v>
       </c>
       <c r="V21">
@@ -13265,7 +13276,7 @@
       <c r="X21">
         <v>1.2800062714665E-2</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="4">
         <v>5.4692129999999999E-2</v>
       </c>
       <c r="Z21">
@@ -13277,19 +13288,19 @@
       <c r="AB21">
         <v>0.183620374044039</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AC21" s="4">
         <v>2.0805830000000001E-2</v>
       </c>
-      <c r="AD21" s="8">
+      <c r="AD21" s="7">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AE21" s="9">
         <v>0.80810000000000004</v>
       </c>
       <c r="AF21">
         <v>0.80352885609140301</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AG21" s="4">
         <v>5.6888399999999997E-3</v>
       </c>
       <c r="AH21">
@@ -13310,7 +13321,7 @@
         <v>0.80810000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10000</v>
       </c>
@@ -13350,16 +13361,16 @@
       <c r="M22">
         <v>5</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>4.75E-4</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="9">
         <v>0.32169999999999999</v>
       </c>
       <c r="P22">
         <v>0.322584818551996</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <v>2.7428999999999999E-3</v>
       </c>
       <c r="R22">
@@ -13371,7 +13382,7 @@
       <c r="T22">
         <v>0.223372647691749</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <v>1.3755699999999999E-2</v>
       </c>
       <c r="V22">
@@ -13383,7 +13394,7 @@
       <c r="X22">
         <v>0.17628099238155501</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="4">
         <v>8.4013200000000003E-3</v>
       </c>
       <c r="Z22">
@@ -13395,7 +13406,7 @@
       <c r="AB22">
         <v>0.14822073606740699</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" s="4">
         <v>3.5132499999999999E-3</v>
       </c>
       <c r="AD22">
@@ -13407,7 +13418,7 @@
       <c r="AF22">
         <v>0.12954080530729301</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AG22" s="4">
         <v>4.600245E-2</v>
       </c>
       <c r="AH22">
@@ -13428,7 +13439,7 @@
         <v>0.32169999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -13477,7 +13488,7 @@
       <c r="P23">
         <v>2.0902609285003999E-2</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <v>3.3363810000000001E-2</v>
       </c>
       <c r="R23">
@@ -13489,7 +13500,7 @@
       <c r="T23">
         <v>9.8526770611804995E-2</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="4">
         <v>6.1168859999999999E-2</v>
       </c>
       <c r="V23">
@@ -13501,7 +13512,7 @@
       <c r="X23">
         <v>0.19481032363812301</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="4">
         <v>4.3579189999999997E-2</v>
       </c>
       <c r="Z23">
@@ -13513,10 +13524,10 @@
       <c r="AB23">
         <v>0.29396340718295499</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AC23" s="4">
         <v>2.3007650000000001E-2</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AD23" s="7">
         <v>7.6499999999999995E-4</v>
       </c>
       <c r="AE23">
@@ -13525,7 +13536,7 @@
       <c r="AF23">
         <v>0.39179688928211298</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AG23" s="4">
         <v>9.1963700000000006E-3</v>
       </c>
       <c r="AH23">
@@ -13546,41 +13557,41 @@
         <v>0.39539999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AK24" s="19" t="s">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AL24" s="17" t="s">
+      <c r="AL24" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="14" t="s">
+    <row r="25" spans="1:38" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="18">
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="16">
         <f>80%</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="14" t="s">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="14" t="s">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="14" t="s">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13599,198 +13610,198 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445E87C3-F74A-4743-B5DA-8DFABD93B669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" customWidth="1"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5546875" customWidth="1"/>
-    <col min="32" max="33" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" customWidth="1"/>
+    <col min="32" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.21875" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" customWidth="1"/>
     <col min="38" max="38" width="11" customWidth="1"/>
-    <col min="39" max="39" width="13.109375" customWidth="1"/>
+    <col min="39" max="39" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.35">
-      <c r="P2" s="2" t="s">
+    <row r="2" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
     </row>
-    <row r="3" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -13812,7 +13823,7 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <v>3</v>
       </c>
       <c r="I4">
@@ -13827,14 +13838,14 @@
       <c r="L4">
         <v>4</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <v>5</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N14" si="0">MIN((D4/I4),(E4/J4),(F4/K4),(G4/L4),(H4/M4))</f>
         <v>0.6</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <v>5</v>
       </c>
       <c r="P4">
@@ -13846,7 +13857,7 @@
       <c r="R4">
         <v>1.2160841627801001E-2</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>3.22004E-3</v>
       </c>
       <c r="T4">
@@ -13858,7 +13869,7 @@
       <c r="V4">
         <v>6.6567547727480997E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>1.153036E-2</v>
       </c>
       <c r="X4">
@@ -13870,7 +13881,7 @@
       <c r="Z4">
         <v>0.164024920493827</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>6.8434239999999993E-2</v>
       </c>
       <c r="AB4">
@@ -13882,10 +13893,10 @@
       <c r="AD4">
         <v>0.29738076239597599</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="4">
         <v>3.9408190000000003E-2</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="9">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="AG4">
@@ -13894,7 +13905,7 @@
       <c r="AH4">
         <v>0.45986592775491503</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="4">
         <v>5.0900000000000001E-4</v>
       </c>
       <c r="AJ4">
@@ -13912,7 +13923,7 @@
         <v>0.46010000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -13934,7 +13945,7 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>3</v>
       </c>
       <c r="I5">
@@ -13949,14 +13960,14 @@
       <c r="L5">
         <v>4</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="17">
         <v>5</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="17">
         <v>5</v>
       </c>
       <c r="P5">
@@ -13968,7 +13979,7 @@
       <c r="R5">
         <v>1.317154236544E-3</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>1.3023710000000001E-2</v>
       </c>
       <c r="T5">
@@ -13980,7 +13991,7 @@
       <c r="V5">
         <v>2.7396786399958999E-2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>3.661793E-2</v>
       </c>
       <c r="X5">
@@ -13992,10 +14003,10 @@
       <c r="Z5">
         <v>0.11969863760175201</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>2.0874400000000001E-2</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="9">
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="AC5">
@@ -14004,7 +14015,7 @@
       <c r="AD5">
         <v>0.29628561668852399</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="4">
         <v>9.0642799999999992E-3</v>
       </c>
       <c r="AF5">
@@ -14016,7 +14027,7 @@
       <c r="AH5">
         <v>0.55530180507322202</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4">
         <v>7.5602000000000004E-3</v>
       </c>
       <c r="AJ5">
@@ -14026,15 +14037,15 @@
       <c r="AK5">
         <v>4</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="5">
         <v>0.29360000000000003</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="5">
         <f t="shared" si="2"/>
         <v>0.5595</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -14056,7 +14067,7 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>3</v>
       </c>
       <c r="I6">
@@ -14071,14 +14082,14 @@
       <c r="L6">
         <v>4</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="17">
         <v>5</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="17">
         <v>5</v>
       </c>
       <c r="P6">
@@ -14090,7 +14101,7 @@
       <c r="R6">
         <v>1.6243709035099999E-4</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>0.23124589000000001</v>
       </c>
       <c r="T6">
@@ -14102,7 +14113,7 @@
       <c r="V6">
         <v>1.2211944454301E-2</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>9.7286349999999994E-2</v>
       </c>
       <c r="X6">
@@ -14114,10 +14125,10 @@
       <c r="Z6">
         <v>8.900993390254E-2</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>6.6292199999999999E-3</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="9">
         <v>1.5699999999999999E-4</v>
       </c>
       <c r="AC6">
@@ -14126,7 +14137,7 @@
       <c r="AD6">
         <v>0.284031027981892</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="4">
         <v>1.3840140000000001E-2</v>
       </c>
       <c r="AF6">
@@ -14138,7 +14149,7 @@
       <c r="AH6">
         <v>0.61458465657091599</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>3.4419099999999998E-3</v>
       </c>
       <c r="AJ6">
@@ -14148,15 +14159,15 @@
       <c r="AK6">
         <v>4</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="5">
         <v>0.28010000000000002</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="5">
         <f t="shared" si="2"/>
         <v>0.61670000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -14178,7 +14189,7 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>3</v>
       </c>
       <c r="I7">
@@ -14193,14 +14204,14 @@
       <c r="L7">
         <v>4</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="17">
         <v>5</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="17">
         <v>5</v>
       </c>
       <c r="P7">
@@ -14212,7 +14223,7 @@
       <c r="R7">
         <v>2.1268492235E-5</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>1</v>
       </c>
       <c r="T7">
@@ -14224,7 +14235,7 @@
       <c r="V7">
         <v>5.6745712455780004E-3</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>0.22461101999999999</v>
       </c>
       <c r="X7">
@@ -14236,7 +14247,7 @@
       <c r="Z7">
         <v>6.7266395459204001E-2</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>6.6398609999999997E-2</v>
       </c>
       <c r="AB7">
@@ -14248,10 +14259,10 @@
       <c r="AD7">
         <v>0.26940654045428403</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="4">
         <v>2.4280000000000001E-5</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="9">
         <v>2.8499999999999999E-4</v>
       </c>
       <c r="AG7">
@@ -14260,7 +14271,7 @@
       <c r="AH7">
         <v>0.65763122434869903</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="4">
         <v>8.77205E-3</v>
       </c>
       <c r="AJ7">
@@ -14278,7 +14289,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -14300,7 +14311,7 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>3</v>
       </c>
       <c r="I8">
@@ -14315,14 +14326,14 @@
       <c r="L8">
         <v>4</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="17">
         <v>5</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="17">
         <v>5</v>
       </c>
       <c r="P8">
@@ -14334,7 +14345,7 @@
       <c r="R8">
         <v>2.8844184620000001E-6</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>1</v>
       </c>
       <c r="T8">
@@ -14346,7 +14357,7 @@
       <c r="V8">
         <v>2.7048518000450002E-3</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <v>0.18664675</v>
       </c>
       <c r="X8">
@@ -14358,7 +14369,7 @@
       <c r="Z8">
         <v>5.1449031372046997E-2</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>4.3713769999999999E-2</v>
       </c>
       <c r="AB8">
@@ -14370,10 +14381,10 @@
       <c r="AD8">
         <v>0.25456927020294901</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" s="4">
         <v>1.544071E-2</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="9">
         <v>2.7099999999999997E-4</v>
       </c>
       <c r="AG8">
@@ -14382,7 +14393,7 @@
       <c r="AH8">
         <v>0.69127396220649795</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AI8" s="4">
         <v>1.69826E-3</v>
       </c>
       <c r="AJ8">
@@ -14400,7 +14411,7 @@
         <v>0.69010000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -14422,7 +14433,7 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>3</v>
       </c>
       <c r="I9">
@@ -14437,14 +14448,14 @@
       <c r="L9">
         <v>4</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="17">
         <v>5</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="17">
         <v>5</v>
       </c>
       <c r="P9">
@@ -14456,7 +14467,7 @@
       <c r="R9">
         <v>4.0044477300000001E-7</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>1</v>
       </c>
       <c r="T9">
@@ -14468,7 +14479,7 @@
       <c r="V9">
         <v>1.311655282315E-3</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>0.16136502</v>
       </c>
       <c r="X9">
@@ -14480,7 +14491,7 @@
       <c r="Z9">
         <v>3.9712991939803002E-2</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="4">
         <v>3.7443869999999997E-2</v>
       </c>
       <c r="AB9">
@@ -14492,10 +14503,10 @@
       <c r="AD9">
         <v>0.240229063499735</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="4">
         <v>1.7778599999999999E-2</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="9">
         <v>2.99E-4</v>
       </c>
       <c r="AG9">
@@ -14504,7 +14515,7 @@
       <c r="AH9">
         <v>0.71874588883337398</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9" s="4">
         <v>7.7160600000000003E-3</v>
       </c>
       <c r="AJ9">
@@ -14522,7 +14533,7 @@
         <v>0.71319999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -14544,7 +14555,7 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>3</v>
       </c>
       <c r="I10">
@@ -14559,14 +14570,14 @@
       <c r="L10">
         <v>4</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="17">
         <v>5</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="17">
         <v>5</v>
       </c>
       <c r="P10">
@@ -14578,7 +14589,7 @@
       <c r="R10">
         <v>5.6537147000000002E-8</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10">
@@ -14590,7 +14601,7 @@
       <c r="V10">
         <v>6.4399297509700002E-4</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="4">
         <v>0.37887521000000002</v>
       </c>
       <c r="X10">
@@ -14602,7 +14613,7 @@
       <c r="Z10">
         <v>3.0875358775451001E-2</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>3.318637E-2</v>
       </c>
       <c r="AB10">
@@ -14614,10 +14625,10 @@
       <c r="AD10">
         <v>0.22663309909764701</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="4">
         <v>1.264997E-2</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10" s="9">
         <v>5.8200000000000005E-4</v>
       </c>
       <c r="AG10">
@@ -14626,7 +14637,7 @@
       <c r="AH10">
         <v>0.74184749261465799</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AI10" s="4">
         <v>4.91677E-3</v>
       </c>
       <c r="AJ10">
@@ -14644,7 +14655,7 @@
         <v>0.73819999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -14666,7 +14677,7 @@
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="17">
         <v>3</v>
       </c>
       <c r="I11">
@@ -14681,14 +14692,14 @@
       <c r="L11">
         <v>4</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="17">
         <v>5</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="17">
         <v>5</v>
       </c>
       <c r="P11">
@@ -14700,7 +14711,7 @@
       <c r="R11">
         <v>8.0846400000000003E-9</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <v>1</v>
       </c>
       <c r="T11">
@@ -14712,7 +14723,7 @@
       <c r="V11">
         <v>3.1916665949199998E-4</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4">
         <v>0.56657966999999998</v>
       </c>
       <c r="X11">
@@ -14724,7 +14735,7 @@
       <c r="Z11">
         <v>2.4143919400884999E-2</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>7.6875700000000005E-2</v>
       </c>
       <c r="AB11">
@@ -14736,10 +14747,10 @@
       <c r="AD11">
         <v>0.21385076109143</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="4">
         <v>2.2675810000000001E-2</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11" s="9">
         <v>4.5899999999999999E-4</v>
       </c>
       <c r="AG11">
@@ -14748,7 +14759,7 @@
       <c r="AH11">
         <v>0.76168614476355201</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AI11" s="4">
         <v>9.0406600000000007E-3</v>
       </c>
       <c r="AJ11">
@@ -14766,7 +14777,7 @@
         <v>0.75480000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -14788,7 +14799,7 @@
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>3</v>
       </c>
       <c r="I12">
@@ -14803,14 +14814,14 @@
       <c r="L12">
         <v>4</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="17">
         <v>5</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="17">
         <v>5</v>
       </c>
       <c r="P12">
@@ -14822,7 +14833,7 @@
       <c r="R12">
         <v>1.167728E-9</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>1</v>
       </c>
       <c r="T12">
@@ -14834,7 +14845,7 @@
       <c r="V12">
         <v>1.5934920883199999E-4</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <v>0.88265760999999998</v>
       </c>
       <c r="X12">
@@ -14846,7 +14857,7 @@
       <c r="Z12">
         <v>1.8970155102124998E-2</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="4">
         <v>4.5869689999999998E-2</v>
       </c>
       <c r="AB12">
@@ -14858,10 +14869,10 @@
       <c r="AD12">
         <v>0.20187773143826199</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE12" s="4">
         <v>1.8710899999999999E-3</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AF12" s="9">
         <v>5.8E-4</v>
       </c>
       <c r="AG12">
@@ -14870,7 +14881,7 @@
       <c r="AH12">
         <v>0.77899276308305299</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="4">
         <v>1.4213699999999999E-3</v>
       </c>
       <c r="AJ12">
@@ -14888,7 +14899,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -14910,7 +14921,7 @@
       <c r="G13">
         <v>3</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>3</v>
       </c>
       <c r="I13">
@@ -14925,14 +14936,14 @@
       <c r="L13">
         <v>4</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="17">
         <v>5</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="17">
         <v>5</v>
       </c>
       <c r="P13">
@@ -14944,7 +14955,7 @@
       <c r="R13">
         <v>1.70038E-10</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
         <v>1</v>
       </c>
       <c r="T13">
@@ -14956,7 +14967,7 @@
       <c r="V13">
         <v>8.0031207499000004E-5</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="4">
         <v>0.24951256999999999</v>
       </c>
       <c r="X13">
@@ -14968,7 +14979,7 @@
       <c r="Z13">
         <v>1.4964430225697E-2</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="4">
         <v>0.13602722</v>
       </c>
       <c r="AB13">
@@ -14980,10 +14991,10 @@
       <c r="AD13">
         <v>0.19067898093779401</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AE13" s="4">
         <v>1.9875299999999999E-3</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AF13" s="9">
         <v>5.1500000000000005E-4</v>
       </c>
       <c r="AG13">
@@ -14992,7 +15003,7 @@
       <c r="AH13">
         <v>0.79427655745897296</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AI13" s="4">
         <v>2.1107999999999999E-3</v>
       </c>
       <c r="AJ13">
@@ -15010,7 +15021,7 @@
         <v>0.79259999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -15032,7 +15043,7 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>3</v>
       </c>
       <c r="I14">
@@ -15047,14 +15058,14 @@
       <c r="L14">
         <v>4</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <v>5</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <v>5</v>
       </c>
       <c r="P14">
@@ -15066,7 +15077,7 @@
       <c r="R14">
         <v>2.4927000000000002E-11</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
         <v>1</v>
       </c>
       <c r="T14">
@@ -15078,7 +15089,7 @@
       <c r="V14">
         <v>4.0391797112000002E-5</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="4">
         <v>1</v>
       </c>
       <c r="X14">
@@ -15090,7 +15101,7 @@
       <c r="Z14">
         <v>1.1844337101614999E-2</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="4">
         <v>3.7433200000000001E-3</v>
       </c>
       <c r="AB14">
@@ -15102,10 +15113,10 @@
       <c r="AD14">
         <v>0.180207702314096</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE14" s="4">
         <v>1.8269460000000001E-2</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AF14" s="9">
         <v>6.4000000000000005E-4</v>
       </c>
       <c r="AG14">
@@ -15114,7 +15125,7 @@
       <c r="AH14">
         <v>0.80790756876225001</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14" s="4">
         <v>3.97022E-3</v>
       </c>
       <c r="AJ14">
@@ -15132,22 +15143,22 @@
         <v>0.80469999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="AL15" s="19" t="s">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AM15" s="22" t="s">
+      <c r="AM15" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="18">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="16">
         <f>9/11</f>
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="18" spans="36:36" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="36:36" ht="21" x14ac:dyDescent="0.35">
       <c r="AJ18" s="1" t="s">
         <v>64</v>
       </c>
@@ -15165,37 +15176,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82255734-C589-42F9-872B-3DD2F970D2FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E1" t="s">
@@ -15214,7 +15225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -15239,11 +15250,11 @@
       <c r="H2">
         <v>0.459866</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -15268,11 +15279,11 @@
       <c r="H3">
         <v>0.55530199999999996</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>7.5602000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -15297,11 +15308,11 @@
       <c r="H4">
         <v>0.61458500000000005</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>3.4419099999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -15326,11 +15337,11 @@
       <c r="H5">
         <v>0.65763099999999997</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>8.77205E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -15355,11 +15366,11 @@
       <c r="H6">
         <v>0.69127400000000006</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>1.69826E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -15384,11 +15395,11 @@
       <c r="H7">
         <v>0.718746</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>7.7160600000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -15413,11 +15424,11 @@
       <c r="H8">
         <v>0.74184799999999995</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>4.91677E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -15442,11 +15453,11 @@
       <c r="H9">
         <v>0.76168599999999997</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>9.0406600000000007E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -15471,11 +15482,11 @@
       <c r="H10">
         <v>0.77899300000000005</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>1.4213699999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -15500,11 +15511,11 @@
       <c r="H11">
         <v>0.79427700000000001</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>2.1107999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -15529,12 +15540,12 @@
       <c r="H12">
         <v>0.80790799999999996</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>3.97022E-3</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="21"/>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15546,37 +15557,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5BCD0E-AFFE-42CE-9584-C04DD8642E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E1" t="s">
@@ -15595,17 +15606,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>10000</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="21">
-        <v>3</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2" s="18">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18">
         <v>1</v>
       </c>
       <c r="E2">
@@ -15617,11 +15628,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -15646,11 +15657,11 @@
       <c r="H3">
         <v>0.877915</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>4.3114099999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -15675,11 +15686,11 @@
       <c r="H4">
         <v>0.73854799999999998</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>3.3617E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -15704,11 +15715,11 @@
       <c r="H5">
         <v>0.633961</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>4.1133000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -15733,11 +15744,11 @@
       <c r="H6">
         <v>0.55530199999999996</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>7.0199599999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -15762,11 +15773,11 @@
       <c r="H7">
         <v>0.49439300000000003</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>4.2342899999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -15791,11 +15802,11 @@
       <c r="H8">
         <v>0.44591199999999998</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>1.7519699999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -15820,11 +15831,11 @@
       <c r="H9">
         <v>0.40641300000000002</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>1.7536100000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -15849,11 +15860,11 @@
       <c r="H10">
         <v>0.37359900000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>6.9610699999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -15878,11 +15889,11 @@
       <c r="H11">
         <v>0.34589300000000001</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>5.4740600000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -15907,11 +15918,11 @@
       <c r="H12">
         <v>0.32217600000000002</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>8.9278699999999992E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -15936,11 +15947,11 @@
       <c r="H13">
         <v>0.30163400000000001</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>2.8397519999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -15965,11 +15976,11 @@
       <c r="H14">
         <v>0.28366200000000003</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>8.3253700000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -15994,11 +16005,11 @@
       <c r="H15">
         <v>0.26779799999999998</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>1.2314810000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -16023,11 +16034,11 @@
       <c r="H16">
         <v>0.253687</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>1.463503E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -16052,11 +16063,11 @@
       <c r="H17">
         <v>0.24104999999999999</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>9.7483599999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -16081,11 +16092,11 @@
       <c r="H18">
         <v>0.22966400000000001</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>1.4646309999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -16110,11 +16121,11 @@
       <c r="H19">
         <v>0.21934799999999999</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>1.5280419999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -16139,11 +16150,11 @@
       <c r="H20">
         <v>0.209957</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>2.7420659999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -16168,7 +16179,7 @@
       <c r="H21">
         <v>0.20136999999999999</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>2.765855E-2</v>
       </c>
     </row>
@@ -16182,205 +16193,205 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F56A27-B2AB-4BA7-99F2-44DFB708C363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB76" sqref="AB76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" customWidth="1"/>
-    <col min="24" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.21875" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.77734375" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" customWidth="1"/>
-    <col min="29" max="29" width="8.5546875" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" customWidth="1"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.21875" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.109375" customWidth="1"/>
-    <col min="36" max="36" width="14.109375" customWidth="1"/>
-    <col min="37" max="37" width="9.77734375" customWidth="1"/>
-    <col min="38" max="38" width="12.88671875" customWidth="1"/>
-    <col min="39" max="39" width="13.109375" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" customWidth="1"/>
+    <col min="38" max="38" width="12.85546875" customWidth="1"/>
+    <col min="39" max="39" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.35">
-      <c r="P2" s="2" t="s">
+    <row r="2" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
     </row>
-    <row r="3" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -16402,7 +16413,7 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4">
@@ -16417,14 +16428,14 @@
       <c r="L4">
         <v>4</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>5</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N28" si="0">MIN((D4/I4),(E4/J4),(F4/K4),(G4/L4),(H4/M4))</f>
         <v>0.6</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>5</v>
       </c>
       <c r="P4">
@@ -16436,7 +16447,7 @@
       <c r="R4">
         <v>1.2160841627801001E-2</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>6.9004960000000004E-2</v>
       </c>
       <c r="T4">
@@ -16448,7 +16459,7 @@
       <c r="V4">
         <v>6.6567547727480997E-2</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>4.0072799999999999E-2</v>
       </c>
       <c r="X4">
@@ -16460,10 +16471,10 @@
       <c r="Z4">
         <v>0.164024920493827</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>3.1244770000000002E-2</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="9">
         <v>6.8999999999999997E-5</v>
       </c>
       <c r="AC4">
@@ -16472,7 +16483,7 @@
       <c r="AD4">
         <v>0.29738076239597599</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AE4" s="4">
         <v>1.439489E-2</v>
       </c>
       <c r="AF4">
@@ -16484,7 +16495,7 @@
       <c r="AH4">
         <v>0.45986592775491503</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="4">
         <v>2.4429019999999999E-2</v>
       </c>
       <c r="AJ4">
@@ -16494,15 +16505,15 @@
       <c r="AK4">
         <v>4</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="5">
         <v>0.29310000000000003</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AM4" s="5">
         <f t="shared" ref="AM4:AM28" si="2">AG4</f>
         <v>0.47110000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -16524,7 +16535,7 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5">
@@ -16539,14 +16550,14 @@
       <c r="L5">
         <v>5</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>5</v>
       </c>
       <c r="P5">
@@ -16558,7 +16569,7 @@
       <c r="R5">
         <v>3.6968308749999998E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>6.5777730000000006E-2</v>
       </c>
       <c r="T5">
@@ -16570,7 +16581,7 @@
       <c r="V5">
         <v>9.5279422500000002E-2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>3.7567629999999998E-2</v>
       </c>
       <c r="X5">
@@ -16582,10 +16593,10 @@
       <c r="Z5">
         <v>0.178542755</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>2.936414E-2</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="9">
         <v>5.5000000000000002E-5</v>
       </c>
       <c r="AC5">
@@ -16594,7 +16605,7 @@
       <c r="AD5">
         <v>0.28319725000000001</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="4">
         <v>1.7292720000000001E-2</v>
       </c>
       <c r="AF5">
@@ -16606,7 +16617,7 @@
       <c r="AH5">
         <v>0.40601226374999999</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4">
         <v>2.7801469999999998E-2</v>
       </c>
       <c r="AJ5">
@@ -16616,15 +16627,15 @@
       <c r="AK5">
         <v>4</v>
       </c>
-      <c r="AL5" s="6">
+      <c r="AL5" s="5">
         <v>0.27829999999999999</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AM5" s="5">
         <f t="shared" si="2"/>
         <v>0.4173</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -16646,7 +16657,7 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6">
@@ -16661,14 +16672,14 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>5</v>
       </c>
       <c r="P6">
@@ -16680,7 +16691,7 @@
       <c r="R6">
         <v>5.9633408989199999E-2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>3.2978010000000002E-2</v>
       </c>
       <c r="T6">
@@ -16692,7 +16703,7 @@
       <c r="V6">
         <v>0.114760169241444</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>1.6209189999999998E-2</v>
       </c>
       <c r="X6">
@@ -16704,10 +16715,10 @@
       <c r="Z6">
         <v>0.18589420742377499</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>3.870055E-2</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="9">
         <v>4.6E-5</v>
       </c>
       <c r="AC6">
@@ -16716,7 +16727,7 @@
       <c r="AD6">
         <v>0.271098895335948</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="4">
         <v>9.2176500000000008E-3</v>
       </c>
       <c r="AF6">
@@ -16728,7 +16739,7 @@
       <c r="AH6">
         <v>0.36861331900963201</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>2.600742E-2</v>
       </c>
       <c r="AJ6">
@@ -16738,15 +16749,15 @@
       <c r="AK6">
         <v>4</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="5">
         <v>0.26860000000000001</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AM6" s="5">
         <f t="shared" si="2"/>
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -16768,7 +16779,7 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7">
@@ -16783,14 +16794,14 @@
       <c r="L7">
         <v>7</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>5</v>
       </c>
       <c r="P7">
@@ -16802,7 +16813,7 @@
       <c r="R7">
         <v>7.7932416643804001E-2</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>2.139781E-2</v>
       </c>
       <c r="T7">
@@ -16814,7 +16825,7 @@
       <c r="V7">
         <v>0.12846096387745801</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>7.3098900000000003E-3</v>
       </c>
       <c r="X7">
@@ -16826,10 +16837,10 @@
       <c r="Z7">
         <v>0.190061412345679</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>3.5048740000000002E-2</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="9">
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="AC7">
@@ -16838,7 +16849,7 @@
       <c r="AD7">
         <v>0.26158136698674</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="4">
         <v>1.5984959999999999E-2</v>
       </c>
       <c r="AF7">
@@ -16850,7 +16861,7 @@
       <c r="AH7">
         <v>0.34196384014631898</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="4">
         <v>2.4084890000000001E-2</v>
       </c>
       <c r="AJ7">
@@ -16860,15 +16871,15 @@
       <c r="AK7">
         <v>4</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL7" s="5">
         <v>0.25740000000000002</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AM7" s="5">
         <f t="shared" si="2"/>
         <v>0.35020000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -16890,7 +16901,7 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8">
@@ -16905,14 +16916,14 @@
       <c r="L8">
         <v>8</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>9</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>5</v>
       </c>
       <c r="P8">
@@ -16924,7 +16935,7 @@
       <c r="R8">
         <v>9.2474306767570999E-2</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>7.8475100000000002E-3</v>
       </c>
       <c r="T8">
@@ -16936,7 +16947,7 @@
       <c r="V8">
         <v>0.13850878390275101</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <v>2.0151909999999999E-2</v>
       </c>
       <c r="X8">
@@ -16948,10 +16959,10 @@
       <c r="Z8">
         <v>0.19263433910816999</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>2.9767999999999999E-2</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="9">
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="AC8">
@@ -16960,7 +16971,7 @@
       <c r="AD8">
         <v>0.25411455768392999</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" s="4">
         <v>1.8552880000000001E-2</v>
       </c>
       <c r="AF8">
@@ -16972,7 +16983,7 @@
       <c r="AH8">
         <v>0.32226801253757797</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AI8" s="4">
         <v>2.151001E-2</v>
       </c>
       <c r="AJ8">
@@ -16982,15 +16993,15 @@
       <c r="AK8">
         <v>4</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AL8" s="5">
         <v>0.24940000000000001</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AM8" s="5">
         <f t="shared" si="2"/>
         <v>0.32919999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -17012,7 +17023,7 @@
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>3</v>
       </c>
       <c r="I9">
@@ -17027,14 +17038,14 @@
       <c r="L9">
         <v>4</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>5</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>5</v>
       </c>
       <c r="P9">
@@ -17046,7 +17057,7 @@
       <c r="R9">
         <v>1.317154236544E-3</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>0.51842505999999999</v>
       </c>
       <c r="T9">
@@ -17058,7 +17069,7 @@
       <c r="V9">
         <v>2.7396786399958999E-2</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>7.6534030000000003E-2</v>
       </c>
       <c r="X9">
@@ -17070,7 +17081,7 @@
       <c r="Z9">
         <v>0.11969863760175201</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="4">
         <v>7.5302600000000004E-3</v>
       </c>
       <c r="AB9">
@@ -17082,10 +17093,10 @@
       <c r="AD9">
         <v>0.29628561668852399</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="4">
         <v>8.72677E-3</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="9">
         <v>1.3899999999999999E-4</v>
       </c>
       <c r="AG9">
@@ -17094,7 +17105,7 @@
       <c r="AH9">
         <v>0.55530180507322202</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AI9" s="4">
         <v>5.5792999999999997E-3</v>
       </c>
       <c r="AJ9">
@@ -17112,7 +17123,7 @@
         <v>0.55840000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -17134,7 +17145,7 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10">
@@ -17149,14 +17160,14 @@
       <c r="L10">
         <v>5</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>5</v>
       </c>
       <c r="P10">
@@ -17168,7 +17179,7 @@
       <c r="R10">
         <v>1.0785054667919E-2</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>0.14973918999999999</v>
       </c>
       <c r="T10">
@@ -17180,7 +17191,7 @@
       <c r="V10">
         <v>5.3923406773561E-2</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="4">
         <v>5.7923019999999999E-2</v>
       </c>
       <c r="X10">
@@ -17192,7 +17203,7 @@
       <c r="Z10">
         <v>0.14662159044331699</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>3.5573900000000001E-3</v>
       </c>
       <c r="AB10">
@@ -17204,10 +17215,10 @@
       <c r="AD10">
         <v>0.29409068032187202</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="4">
         <v>1.66847E-3</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10" s="9">
         <v>1.16E-4</v>
       </c>
       <c r="AG10">
@@ -17216,7 +17227,7 @@
       <c r="AH10">
         <v>0.494579267793331</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AI10" s="4">
         <v>5.0967199999999999E-3</v>
       </c>
       <c r="AJ10">
@@ -17234,7 +17245,7 @@
         <v>0.49709999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -17256,7 +17267,7 @@
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11">
@@ -17271,14 +17282,14 @@
       <c r="L11">
         <v>6</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>7</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>5</v>
       </c>
       <c r="P11">
@@ -17290,7 +17301,7 @@
       <c r="R11">
         <v>2.5902071765047E-2</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <v>6.941253E-2</v>
       </c>
       <c r="T11">
@@ -17302,7 +17313,7 @@
       <c r="V11">
         <v>7.6382111986093001E-2</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4">
         <v>6.391695E-2</v>
       </c>
       <c r="X11">
@@ -17314,7 +17325,7 @@
       <c r="Z11">
         <v>0.16284920603421801</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="4">
         <v>2.1443500000000002E-3</v>
       </c>
       <c r="AB11">
@@ -17326,10 +17337,10 @@
       <c r="AD11">
         <v>0.28705363212861301</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="4">
         <v>1.6153000000000001E-4</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11" s="9">
         <v>9.8999999999999994E-5</v>
       </c>
       <c r="AG11">
@@ -17338,7 +17349,7 @@
       <c r="AH11">
         <v>0.44781297808602899</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AI11" s="4">
         <v>7.5634700000000001E-3</v>
       </c>
       <c r="AJ11">
@@ -17356,7 +17367,7 @@
         <v>0.45119999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -17378,7 +17389,7 @@
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12">
@@ -17393,14 +17404,14 @@
       <c r="L12">
         <v>7</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>8</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>5</v>
       </c>
       <c r="P12">
@@ -17412,7 +17423,7 @@
       <c r="R12">
         <v>4.1799978727508999E-2</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>1.435357E-2</v>
       </c>
       <c r="T12">
@@ -17424,7 +17435,7 @@
       <c r="V12">
         <v>9.4033428009400996E-2</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <v>4.4309479999999998E-2</v>
       </c>
       <c r="X12">
@@ -17436,7 +17447,7 @@
       <c r="Z12">
         <v>0.17295090142338301</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="4">
         <v>3.4408040000000001E-2</v>
       </c>
       <c r="AB12">
@@ -17448,10 +17459,10 @@
       <c r="AD12">
         <v>0.27920291109464601</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE12" s="4">
         <v>1.933035E-2</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AF12" s="9">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="AG12">
@@ -17460,7 +17471,7 @@
       <c r="AH12">
         <v>0.41201278074506098</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AI12" s="4">
         <v>7.3123499999999996E-3</v>
       </c>
       <c r="AJ12">
@@ -17478,7 +17489,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -17500,7 +17511,7 @@
       <c r="G13">
         <v>3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13">
@@ -17515,14 +17526,14 @@
       <c r="L13">
         <v>8</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>5</v>
       </c>
       <c r="P13">
@@ -17534,7 +17545,7 @@
       <c r="R13">
         <v>5.6430270495276998E-2</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
         <v>5.8527199999999996E-3</v>
       </c>
       <c r="T13">
@@ -17546,7 +17557,7 @@
       <c r="V13">
         <v>0.10780344012684299</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="4">
         <v>5.2842100000000003E-2</v>
       </c>
       <c r="X13">
@@ -17558,10 +17569,10 @@
       <c r="Z13">
         <v>0.179539967915926</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="4">
         <v>3.9768129999999999E-2</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13" s="9">
         <v>6.4999999999999994E-5</v>
       </c>
       <c r="AC13">
@@ -17570,7 +17581,7 @@
       <c r="AD13">
         <v>0.271891077333971</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AE13" s="4">
         <v>1.9158120000000001E-2</v>
       </c>
       <c r="AF13">
@@ -17582,7 +17593,7 @@
       <c r="AH13">
         <v>0.38433524412798298</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AI13" s="4">
         <v>8.9381400000000007E-3</v>
       </c>
       <c r="AJ13">
@@ -17592,15 +17603,15 @@
       <c r="AK13">
         <v>4</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AL13" s="5">
         <v>0.27710000000000001</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AM13" s="5">
         <f t="shared" si="2"/>
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -17622,7 +17633,7 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14">
@@ -17637,14 +17648,14 @@
       <c r="L14">
         <v>4</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>5</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>5</v>
       </c>
       <c r="P14">
@@ -17656,7 +17667,7 @@
       <c r="R14">
         <v>1.6243709035099999E-4</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
         <v>0.38437705</v>
       </c>
       <c r="T14">
@@ -17668,7 +17679,7 @@
       <c r="V14">
         <v>1.2211944454301E-2</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="4">
         <v>0.14018607</v>
       </c>
       <c r="X14">
@@ -17680,10 +17691,10 @@
       <c r="Z14">
         <v>8.900993390254E-2</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="4">
         <v>2.6851679999999999E-2</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AB14" s="9">
         <v>1.4100000000000001E-4</v>
       </c>
       <c r="AC14">
@@ -17692,7 +17703,7 @@
       <c r="AD14">
         <v>0.284031027981892</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE14" s="4">
         <v>1.186128E-2</v>
       </c>
       <c r="AF14">
@@ -17704,7 +17715,7 @@
       <c r="AH14">
         <v>0.61458465657091599</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AI14" s="4">
         <v>6.4834999999999997E-3</v>
       </c>
       <c r="AJ14">
@@ -17714,15 +17725,15 @@
       <c r="AK14">
         <v>4</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AL14" s="5">
         <v>0.28739999999999999</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AM14" s="5">
         <f t="shared" si="2"/>
         <v>0.61060000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -17744,7 +17755,7 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>3</v>
       </c>
       <c r="I15">
@@ -17759,14 +17770,14 @@
       <c r="L15">
         <v>5</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>6</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>5</v>
       </c>
       <c r="P15">
@@ -17778,7 +17789,7 @@
       <c r="R15">
         <v>3.498398685234E-3</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="4">
         <v>0.20054927</v>
       </c>
       <c r="T15">
@@ -17790,7 +17801,7 @@
       <c r="V15">
         <v>3.2242217522645999E-2</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="4">
         <v>8.5050520000000004E-2</v>
       </c>
       <c r="X15">
@@ -17802,10 +17813,10 @@
       <c r="Z15">
         <v>0.12067722998857899</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="4">
         <v>2.339107E-2</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AB15" s="9">
         <v>1.13E-4</v>
       </c>
       <c r="AC15">
@@ -17814,7 +17825,7 @@
       <c r="AD15">
         <v>0.291691733224612</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE15" s="4">
         <v>1.339862E-2</v>
       </c>
       <c r="AF15">
@@ -17826,7 +17837,7 @@
       <c r="AH15">
         <v>0.55189042057892801</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AI15" s="4">
         <v>8.4988300000000006E-3</v>
       </c>
       <c r="AJ15">
@@ -17836,15 +17847,15 @@
       <c r="AK15">
         <v>4</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL15" s="5">
         <v>0.29559999999999997</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="5">
         <f t="shared" si="2"/>
         <v>0.54720000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -17866,7 +17877,7 @@
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16">
@@ -17881,14 +17892,14 @@
       <c r="L16">
         <v>6</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>5</v>
       </c>
       <c r="P16">
@@ -17900,7 +17911,7 @@
       <c r="R16">
         <v>1.2300997254066999E-2</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <v>0.20315448</v>
       </c>
       <c r="T16">
@@ -17912,7 +17923,7 @@
       <c r="V16">
         <v>5.3052531066103997E-2</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="4">
         <v>7.0732370000000003E-2</v>
       </c>
       <c r="X16">
@@ -17924,10 +17935,10 @@
       <c r="Z16">
         <v>0.14225489649909601</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="4">
         <v>8.0496600000000001E-3</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AB16" s="9">
         <v>9.3999999999999994E-5</v>
       </c>
       <c r="AC16">
@@ -17936,7 +17947,7 @@
       <c r="AD16">
         <v>0.29075137907634202</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AE16" s="4">
         <v>1.323681E-2</v>
       </c>
       <c r="AF16">
@@ -17948,7 +17959,7 @@
       <c r="AH16">
         <v>0.50164019610439103</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AI16" s="4">
         <v>7.4559300000000004E-3</v>
       </c>
       <c r="AJ16">
@@ -17958,15 +17969,15 @@
       <c r="AK16">
         <v>4</v>
       </c>
-      <c r="AL16" s="6">
+      <c r="AL16" s="5">
         <v>0.29459999999999997</v>
       </c>
-      <c r="AM16" s="6">
+      <c r="AM16" s="5">
         <f t="shared" si="2"/>
         <v>0.49790000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -17988,7 +17999,7 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17">
@@ -18003,14 +18014,14 @@
       <c r="L17">
         <v>7</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>8</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>5</v>
       </c>
       <c r="P17">
@@ -18022,7 +18033,7 @@
       <c r="R17">
         <v>2.4209367651910001E-2</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <v>7.8095070000000003E-2</v>
       </c>
       <c r="T17">
@@ -18034,7 +18045,7 @@
       <c r="V17">
         <v>7.1322932536792005E-2</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>6.341484E-2</v>
       </c>
       <c r="X17">
@@ -18046,10 +18057,10 @@
       <c r="Z17">
         <v>0.156757082517503</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="4">
         <v>2.8980619999999999E-2</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AB17" s="9">
         <v>8.1000000000000004E-5</v>
       </c>
       <c r="AC17">
@@ -18058,7 +18069,7 @@
       <c r="AD17">
         <v>0.28623977500065201</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AE17" s="4">
         <v>1.278727E-2</v>
       </c>
       <c r="AF17">
@@ -18070,7 +18081,7 @@
       <c r="AH17">
         <v>0.461470842293143</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AI17" s="4">
         <v>1.207193E-2</v>
       </c>
       <c r="AJ17">
@@ -18080,15 +18091,15 @@
       <c r="AK17">
         <v>4</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL17" s="5">
         <v>0.28989999999999999</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AM17" s="5">
         <f t="shared" si="2"/>
         <v>0.45590000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -18110,7 +18121,7 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18">
@@ -18125,14 +18136,14 @@
       <c r="L18">
         <v>8</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>9</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>5</v>
       </c>
       <c r="P18">
@@ -18144,7 +18155,7 @@
       <c r="R18">
         <v>3.6830150838309997E-2</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>2.9048190000000002E-2</v>
       </c>
       <c r="T18">
@@ -18156,7 +18167,7 @@
       <c r="V18">
         <v>8.6530736649823997E-2</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>3.1558000000000003E-2</v>
       </c>
       <c r="X18">
@@ -18168,10 +18179,10 @@
       <c r="Z18">
         <v>0.16668554707905001</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="4">
         <v>2.7083650000000001E-2</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AB18" s="9">
         <v>7.1000000000000005E-5</v>
       </c>
       <c r="AC18">
@@ -18180,7 +18191,7 @@
       <c r="AD18">
         <v>0.280608847522135</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="4">
         <v>4.6012500000000003E-3</v>
       </c>
       <c r="AF18">
@@ -18192,7 +18203,7 @@
       <c r="AH18">
         <v>0.42934471791068002</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AI18" s="4">
         <v>9.6535900000000001E-3</v>
       </c>
       <c r="AJ18">
@@ -18202,15 +18213,15 @@
       <c r="AK18">
         <v>4</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AL18" s="5">
         <v>0.28189999999999998</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AM18" s="5">
         <f t="shared" si="2"/>
         <v>0.42520000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -18232,7 +18243,7 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19">
@@ -18247,14 +18258,14 @@
       <c r="L19">
         <v>4</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>5</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>5</v>
       </c>
       <c r="P19">
@@ -18266,7 +18277,7 @@
       <c r="R19">
         <v>2.1268492235E-5</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
         <v>3.7017907499999998</v>
       </c>
       <c r="T19">
@@ -18278,7 +18289,7 @@
       <c r="V19">
         <v>5.6745712455780004E-3</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="4">
         <v>7.4971079999999996E-2</v>
       </c>
       <c r="X19">
@@ -18290,7 +18301,7 @@
       <c r="Z19">
         <v>6.7266395459204001E-2</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="4">
         <v>4.5098369999999999E-2</v>
       </c>
       <c r="AB19">
@@ -18302,10 +18313,10 @@
       <c r="AD19">
         <v>0.26940654045428403</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" s="4">
         <v>2.415138E-2</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF19" s="9">
         <v>2.4699999999999999E-4</v>
       </c>
       <c r="AG19">
@@ -18314,7 +18325,7 @@
       <c r="AH19">
         <v>0.65763122434869903</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AI19" s="4">
         <v>4.5143500000000003E-3</v>
       </c>
       <c r="AJ19">
@@ -18332,7 +18343,7 @@
         <v>0.66059999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -18354,7 +18365,7 @@
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20">
@@ -18369,14 +18380,14 @@
       <c r="L20">
         <v>5</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>6</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>5</v>
       </c>
       <c r="P20">
@@ -18388,7 +18399,7 @@
       <c r="R20">
         <v>1.1930702093090001E-3</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
         <v>0.59252992000000004</v>
       </c>
       <c r="T20">
@@ -18400,7 +18411,7 @@
       <c r="V20">
         <v>1.9868755919924999E-2</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" s="4">
         <v>5.1902799999999999E-2</v>
       </c>
       <c r="X20">
@@ -18412,7 +18423,7 @@
       <c r="Z20">
         <v>9.9992526957132996E-2</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="4">
         <v>1.507586E-2</v>
       </c>
       <c r="AB20">
@@ -18424,10 +18435,10 @@
       <c r="AD20">
         <v>0.28472936636954499</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AE20" s="4">
         <v>1.52052E-2</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AF20" s="9">
         <v>2.0599999999999999E-4</v>
       </c>
       <c r="AG20">
@@ -18436,7 +18447,7 @@
       <c r="AH20">
         <v>0.59421628054408804</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AI20" s="4">
         <v>1.8237800000000001E-3</v>
       </c>
       <c r="AJ20">
@@ -18454,7 +18465,7 @@
         <v>0.59530000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -18476,7 +18487,7 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21">
@@ -18491,14 +18502,14 @@
       <c r="L21">
         <v>6</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>7</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <v>5</v>
       </c>
       <c r="P21">
@@ -18510,7 +18521,7 @@
       <c r="R21">
         <v>6.0982099538309997E-3</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
         <v>0.27906386999999999</v>
       </c>
       <c r="T21">
@@ -18522,10 +18533,10 @@
       <c r="V21">
         <v>3.7705552395047998E-2</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="4">
         <v>1.8417650000000001E-2</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="9">
         <v>1.66E-4</v>
       </c>
       <c r="Y21">
@@ -18534,7 +18545,7 @@
       <c r="Z21">
         <v>0.124505374793715</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="4">
         <v>8.7917900000000007E-3</v>
       </c>
       <c r="AB21">
@@ -18546,7 +18557,7 @@
       <c r="AD21">
         <v>0.28928033053021601</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AE21" s="4">
         <v>1.341374E-2</v>
       </c>
       <c r="AF21">
@@ -18558,7 +18569,7 @@
       <c r="AH21">
         <v>0.54241053232719005</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AI21" s="4">
         <v>7.1803000000000004E-4</v>
       </c>
       <c r="AJ21">
@@ -18568,15 +18579,15 @@
       <c r="AK21">
         <v>3</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AL21" s="5">
         <v>0.12559999999999999</v>
       </c>
-      <c r="AM21" s="6">
+      <c r="AM21" s="5">
         <f t="shared" si="2"/>
         <v>0.54279999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10000</v>
       </c>
@@ -18598,7 +18609,7 @@
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22">
@@ -18613,14 +18624,14 @@
       <c r="L22">
         <v>7</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>8</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>5</v>
       </c>
       <c r="P22">
@@ -18632,7 +18643,7 @@
       <c r="R22">
         <v>1.4556714881181E-2</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="4">
         <v>0.27089113999999997</v>
       </c>
       <c r="T22">
@@ -18644,10 +18655,10 @@
       <c r="V22">
         <v>5.5121724880640002E-2</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="4">
         <v>1.4907460000000001E-2</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="9">
         <v>1.3899999999999999E-4</v>
       </c>
       <c r="Y22">
@@ -18656,7 +18667,7 @@
       <c r="Z22">
         <v>0.14207324332121499</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="4">
         <v>7.9308199999999999E-3</v>
       </c>
       <c r="AB22">
@@ -18668,7 +18679,7 @@
       <c r="AD22">
         <v>0.28833131599880601</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" s="4">
         <v>7.0450799999999996E-3</v>
       </c>
       <c r="AF22">
@@ -18680,7 +18691,7 @@
       <c r="AH22">
         <v>0.499917000918157</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AI22" s="4">
         <v>4.4347400000000004E-3</v>
       </c>
       <c r="AJ22">
@@ -18690,15 +18701,15 @@
       <c r="AK22">
         <v>3</v>
       </c>
-      <c r="AL22" s="6">
+      <c r="AL22" s="5">
         <v>0.14319999999999999</v>
       </c>
-      <c r="AM22" s="6">
+      <c r="AM22" s="5">
         <f t="shared" si="2"/>
         <v>0.49769999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -18720,7 +18731,7 @@
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23">
@@ -18735,14 +18746,14 @@
       <c r="L23">
         <v>8</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>9</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <v>5</v>
       </c>
       <c r="P23">
@@ -18754,7 +18765,7 @@
       <c r="R23">
         <v>2.4847519556014001E-2</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="4">
         <v>0.15102032000000001</v>
       </c>
       <c r="T23">
@@ -18766,10 +18777,10 @@
       <c r="V23">
         <v>7.0577950675008994E-2</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="4">
         <v>4.5027530000000003E-2</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="9">
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="Y23">
@@ -18778,7 +18789,7 @@
       <c r="Z23">
         <v>0.15462905062787699</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AA23" s="4">
         <v>6.9259300000000003E-3</v>
       </c>
       <c r="AB23">
@@ -18790,7 +18801,7 @@
       <c r="AD23">
         <v>0.28486067874008397</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AE23" s="4">
         <v>1.9682599999999999E-3</v>
       </c>
       <c r="AF23">
@@ -18802,7 +18813,7 @@
       <c r="AH23">
         <v>0.46508480040101602</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AI23" s="4">
         <v>2.3324800000000001E-3</v>
       </c>
       <c r="AJ23">
@@ -18812,15 +18823,15 @@
       <c r="AK23">
         <v>3</v>
       </c>
-      <c r="AL23" s="6">
+      <c r="AL23" s="5">
         <v>0.15570000000000001</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AM23" s="5">
         <f t="shared" si="2"/>
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -18842,7 +18853,7 @@
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>3</v>
       </c>
       <c r="I24">
@@ -18857,14 +18868,14 @@
       <c r="L24">
         <v>4</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>5</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <v>5</v>
       </c>
       <c r="P24">
@@ -18876,7 +18887,7 @@
       <c r="R24">
         <v>2.8844184620000001E-6</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="4">
         <v>33.669033400000004</v>
       </c>
       <c r="T24">
@@ -18888,7 +18899,7 @@
       <c r="V24">
         <v>2.7048518000450002E-3</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W24" s="4">
         <v>0.36791227999999998</v>
       </c>
       <c r="X24">
@@ -18900,7 +18911,7 @@
       <c r="Z24">
         <v>5.1449031372046997E-2</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" s="4">
         <v>8.4530869999999994E-2</v>
       </c>
       <c r="AB24">
@@ -18912,10 +18923,10 @@
       <c r="AD24">
         <v>0.25456927020294901</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AE24" s="4">
         <v>8.5213400000000005E-3</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF24" s="9">
         <v>3.8200000000000002E-4</v>
       </c>
       <c r="AG24">
@@ -18924,7 +18935,7 @@
       <c r="AH24">
         <v>0.69127396220649795</v>
       </c>
-      <c r="AI24" s="5">
+      <c r="AI24" s="4">
         <v>7.8493299999999998E-3</v>
       </c>
       <c r="AJ24">
@@ -18942,7 +18953,7 @@
         <v>0.69669999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10000</v>
       </c>
@@ -18964,7 +18975,7 @@
       <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25">
@@ -18979,14 +18990,14 @@
       <c r="L25">
         <v>5</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>6</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <v>5</v>
       </c>
       <c r="P25">
@@ -18998,7 +19009,7 @@
       <c r="R25">
         <v>4.1916855638E-4</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="4">
         <v>0.28429746</v>
       </c>
       <c r="T25">
@@ -19010,7 +19021,7 @@
       <c r="V25">
         <v>1.2487001746254001E-2</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25" s="4">
         <v>1.04094E-3</v>
       </c>
       <c r="X25">
@@ -19022,7 +19033,7 @@
       <c r="Z25">
         <v>8.3393612349064006E-2</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA25" s="4">
         <v>3.949478E-2</v>
       </c>
       <c r="AB25">
@@ -19034,10 +19045,10 @@
       <c r="AD25">
         <v>0.275978078748425</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AE25" s="4">
         <v>1.2602739999999999E-2</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AF25" s="9">
         <v>3.1799999999999998E-4</v>
       </c>
       <c r="AG25">
@@ -19046,7 +19057,7 @@
       <c r="AH25">
         <v>0.62772213859987802</v>
       </c>
-      <c r="AI25" s="5">
+      <c r="AI25" s="4">
         <v>1.0956860000000001E-2</v>
       </c>
       <c r="AJ25">
@@ -19064,7 +19075,7 @@
         <v>0.63460000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -19086,7 +19097,7 @@
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26">
@@ -19101,14 +19112,14 @@
       <c r="L26">
         <v>6</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <v>7</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <v>5</v>
       </c>
       <c r="P26">
@@ -19120,7 +19131,7 @@
       <c r="R26">
         <v>3.102382830586E-3</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="4">
         <v>0.28933153</v>
       </c>
       <c r="T26">
@@ -19132,7 +19143,7 @@
       <c r="V26">
         <v>2.7206975350949E-2</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" s="4">
         <v>1.495849E-2</v>
       </c>
       <c r="X26">
@@ -19144,7 +19155,7 @@
       <c r="Z26">
         <v>0.10929100559122799</v>
       </c>
-      <c r="AA26" s="5">
+      <c r="AA26" s="4">
         <v>2.0962430000000001E-2</v>
       </c>
       <c r="AB26">
@@ -19156,10 +19167,10 @@
       <c r="AD26">
         <v>0.28524869250784202</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AE26" s="4">
         <v>2.9752699999999999E-3</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AF26" s="9">
         <v>2.7300000000000002E-4</v>
       </c>
       <c r="AG26">
@@ -19168,7 +19179,7 @@
       <c r="AH26">
         <v>0.57515094371939401</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AI26" s="4">
         <v>4.6058499999999999E-3</v>
       </c>
       <c r="AJ26">
@@ -19186,7 +19197,7 @@
         <v>0.57779999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10000</v>
       </c>
@@ -19208,7 +19219,7 @@
       <c r="G27">
         <v>3</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>3</v>
       </c>
       <c r="I27">
@@ -19223,14 +19234,14 @@
       <c r="L27">
         <v>7</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>8</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <v>5</v>
       </c>
       <c r="P27">
@@ -19242,7 +19253,7 @@
       <c r="R27">
         <v>8.9545227712079997E-3</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="4">
         <v>1.624623E-2</v>
       </c>
       <c r="T27">
@@ -19254,7 +19265,7 @@
       <c r="V27">
         <v>4.3125319600375002E-2</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W27" s="4">
         <v>2.4919940000000002E-2</v>
       </c>
       <c r="X27">
@@ -19266,7 +19277,7 @@
       <c r="Z27">
         <v>0.12890561828109001</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AA27" s="4">
         <v>2.874676E-2</v>
       </c>
       <c r="AB27">
@@ -19278,10 +19289,10 @@
       <c r="AD27">
         <v>0.28767956735381001</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AE27" s="4">
         <v>1.31941E-3</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AF27" s="9">
         <v>2.3900000000000001E-4</v>
       </c>
       <c r="AG27">
@@ -19290,7 +19301,7 @@
       <c r="AH27">
         <v>0.53133497199351698</v>
       </c>
-      <c r="AI27" s="5">
+      <c r="AI27" s="4">
         <v>5.3921300000000002E-3</v>
       </c>
       <c r="AJ27">
@@ -19308,7 +19319,7 @@
         <v>0.53420000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10000</v>
       </c>
@@ -19330,7 +19341,7 @@
       <c r="G28">
         <v>3</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28">
@@ -19345,14 +19356,14 @@
       <c r="L28">
         <v>8</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>9</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <v>5</v>
       </c>
       <c r="P28">
@@ -19364,7 +19375,7 @@
       <c r="R28">
         <v>1.7107473572772001E-2</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <v>4.3686000000000002E-4</v>
       </c>
       <c r="T28">
@@ -19376,7 +19387,7 @@
       <c r="V28">
         <v>5.8165186394512999E-2</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28" s="4">
         <v>2.5190089999999998E-2</v>
       </c>
       <c r="X28">
@@ -19388,7 +19399,7 @@
       <c r="Z28">
         <v>0.14347555091502701</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="AA28" s="4">
         <v>6.4292829999999995E-2</v>
       </c>
       <c r="AB28">
@@ -19400,10 +19411,10 @@
       <c r="AD28">
         <v>0.28647565111025203</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AE28" s="4">
         <v>2.00942E-3</v>
       </c>
-      <c r="AF28" s="11">
+      <c r="AF28" s="9">
         <v>1.4300000000000001E-4</v>
       </c>
       <c r="AG28">
@@ -19412,7 +19423,7 @@
       <c r="AH28">
         <v>0.49477613800743597</v>
       </c>
-      <c r="AI28" s="5">
+      <c r="AI28" s="4">
         <v>1.4503810000000001E-2</v>
       </c>
       <c r="AJ28">
@@ -19430,28 +19441,28 @@
         <v>0.48759999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="AL29" s="19" t="s">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AM29" s="22" t="s">
+      <c r="AM29" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
       <c r="P30" t="s">
         <v>76</v>
       </c>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="18">
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="16">
         <f>11/25</f>
         <v>0.44</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>73</v>
       </c>
@@ -19465,7 +19476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -19489,7 +19500,7 @@
         <v>9.2474306767570999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -19513,7 +19524,7 @@
         <v>0.13850878390275101</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -19537,7 +19548,7 @@
         <v>0.19263433910816999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -19561,7 +19572,7 @@
         <v>0.25411455768392999</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -19585,7 +19596,7 @@
         <v>0.32226801253757797</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -19593,7 +19604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>73</v>
       </c>
@@ -19607,7 +19618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -19631,7 +19642,7 @@
         <v>1.7107473572772001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -19655,7 +19666,7 @@
         <v>5.8165186394512999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -19679,7 +19690,7 @@
         <v>0.14347555091502701</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -19703,7 +19714,7 @@
         <v>0.28647565111025203</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -19733,9 +19744,10 @@
     <mergeCell ref="AL29:AL30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/graph_pbest.xlsx
+++ b/graph_pbest.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\wifimodel\WifiAPSelectionModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\wifiselectionModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6414C31A-04FD-4309-BADF-4C0293E5D717}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8415" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K_increse" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="N_Increse" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="CompareAnalysis" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="Compare_KIncrease" sheetId="7" r:id="rId4"/>
+    <sheet name="CompareAnalysis" sheetId="5" r:id="rId3"/>
+    <sheet name="Compare_KIncrease" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="K_increase2" sheetId="8" r:id="rId5"/>
     <sheet name="N_Increase" sheetId="9" r:id="rId6"/>
     <sheet name="Compare_analysis" sheetId="10" r:id="rId7"/>
@@ -29,7 +30,7 @@
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">N_Increse!$A$1:$F$21</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">K_increse!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,32 +46,32 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - figure" description="Connection to the 'figure' query in the workbook." type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - figure" description="Connection to the 'figure' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure;Extended Properties=&quot;&quot;" command="SELECT * FROM [figure]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - figure (2)" description="Connection to the 'figure (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - figure (2)" description="Connection to the 'figure (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [figure (2)]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Query - figure (3)" description="Connection to the 'figure (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - figure (3)" description="Connection to the 'figure (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [figure (3)]"/>
   </connection>
-  <connection id="4" keepAlive="1" name="Query - figure_k" description="Connection to the 'figure_k' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Query - figure_k" description="Connection to the 'figure_k' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure_k;Extended Properties=&quot;&quot;" command="SELECT * FROM [figure_k]"/>
   </connection>
-  <connection id="5" keepAlive="1" name="Query - figure_n" description="Connection to the 'figure_n' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Query - figure_n" description="Connection to the 'figure_n' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=figure_n;Extended Properties=&quot;&quot;" command="SELECT * FROM [figure_n]"/>
   </connection>
-  <connection id="6" keepAlive="1" name="Query - result" description="Connection to the 'result' query in the workbook." type="5" refreshedVersion="6" background="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="Query - result" description="Connection to the 'result' query in the workbook." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result;Extended Properties=&quot;&quot;" command="SELECT * FROM [result]"/>
   </connection>
-  <connection id="7" keepAlive="1" name="Query - result (2)" description="Connection to the 'result (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" keepAlive="1" name="Query - result (2)" description="Connection to the 'result (2)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (2)]"/>
   </connection>
-  <connection id="8" keepAlive="1" name="Query - result (3)" description="Connection to the 'result (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" keepAlive="1" name="Query - result (3)" description="Connection to the 'result (3)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (3)]"/>
   </connection>
-  <connection id="9" keepAlive="1" name="Query - result (4)" description="Connection to the 'result (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" keepAlive="1" name="Query - result (4)" description="Connection to the 'result (4)' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (4);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (4)]"/>
   </connection>
 </connections>
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1144,7 +1145,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1152,6 +1152,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1683,7 +1684,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1691,6 +1691,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1770,7 +1771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2047,7 +2047,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2154,7 +2153,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2235,7 +2233,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2267,7 +2264,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2275,6 +2271,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2354,7 +2351,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2685,7 +2681,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2792,7 +2787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2873,7 +2867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2905,7 +2898,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2913,6 +2905,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2992,7 +2985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3353,7 +3345,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3385,7 +3376,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3393,6 +3383,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3472,7 +3463,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3833,7 +3823,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3865,7 +3854,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3873,6 +3861,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3952,7 +3941,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4313,7 +4301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4345,7 +4332,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4353,6 +4339,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4432,7 +4419,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4793,7 +4779,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4825,7 +4810,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4833,6 +4817,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9561,7 +9546,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="4" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9576,7 +9561,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="5" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9591,7 +9576,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="7" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="39" unboundColumnsRight="5">
     <queryTableFields count="38">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9638,7 +9623,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="8" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="40" unboundColumnsRight="4">
     <queryTableFields count="39">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9686,7 +9671,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9704,7 +9689,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9722,7 +9707,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="9" xr16:uid="{00000000-0016-0000-0600-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="40" unboundColumnsRight="4">
     <queryTableFields count="39">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9770,79 +9755,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="figure_k" displayName="figure_k" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="figure_k" displayName="figure_k" ref="A1:F12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="figure_n" displayName="figure_n" ref="A1:F21" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="figure_n" displayName="figure_n" ref="A1:F21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="E[ti]" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Select Api" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="E[ti]" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="Pbest[i*=min(E[ti])]" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="result__2" displayName="result__2" ref="A3:AL23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A3:AL23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="result__2" displayName="result__2" ref="A3:AL23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:AL23" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="38">
-    <tableColumn id="1" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="n1" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="n2" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="n3" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="n4" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="n5" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="lambda5" queryTableFieldId="13"/>
-    <tableColumn id="14" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
-    <tableColumn id="17" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="34"/>
-    <tableColumn id="18" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
-    <tableColumn id="21" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="33"/>
-    <tableColumn id="22" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
-    <tableColumn id="23" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
-    <tableColumn id="24" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
-    <tableColumn id="25" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="32"/>
-    <tableColumn id="26" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
-    <tableColumn id="27" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
-    <tableColumn id="28" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
-    <tableColumn id="29" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="31"/>
-    <tableColumn id="30" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
-    <tableColumn id="31" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
-    <tableColumn id="32" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
-    <tableColumn id="33" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="30"/>
-    <tableColumn id="34" uniqueName="34" name="MIN(E[T_i(K)])" queryTableFieldId="34" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="n1" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" uniqueName="5" name="n2" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" uniqueName="6" name="n3" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" uniqueName="7" name="n4" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" uniqueName="8" name="n5" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" uniqueName="13" name="lambda5" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="31"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="30"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" uniqueName="34" name="MIN(E[T_i(K)])" queryTableFieldId="34" dataDxfId="29">
       <calculatedColumnFormula>MIN(N4,R4,V4,Z4,AD4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" uniqueName="35" name="I*" queryTableFieldId="35"/>
-    <tableColumn id="36" uniqueName="36" name="Pr[i* = MIN(E[T_i(K)])]" queryTableFieldId="36" dataDxfId="28"/>
-    <tableColumn id="38" uniqueName="38" name="Ibest" queryTableFieldId="38"/>
-    <tableColumn id="37" uniqueName="37" name="Pbest[MAX(P[i*=j])" queryTableFieldId="37" dataDxfId="27">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" uniqueName="35" name="I*" queryTableFieldId="35"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" uniqueName="36" name="Pr[i* = MIN(E[T_i(K)])]" queryTableFieldId="36" dataDxfId="28"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" uniqueName="38" name="Ibest" queryTableFieldId="38"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" uniqueName="37" name="Pbest[MAX(P[i*=j])" queryTableFieldId="37" dataDxfId="27">
       <calculatedColumnFormula>MAX(O4,S4,W4,AA4,AE4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9851,52 +9836,52 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="result__3" displayName="result__3" ref="A3:AM14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A3:AM14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="result__3" displayName="result__3" ref="A3:AM14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A3:AM14" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="39">
-    <tableColumn id="1" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="n1" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="n2" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="n3" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="n4" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="25"/>
-    <tableColumn id="9" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="24"/>
-    <tableColumn id="34" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="34" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" uniqueName="4" name="n1" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" uniqueName="5" name="n2" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" uniqueName="6" name="n3" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" uniqueName="7" name="n4" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="24"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0300-000022000000}" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="34" dataDxfId="23">
       <calculatedColumnFormula>MIN((D4/I4),(E4/J4),(F4/K4),(G4/L4),(H4/M4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" uniqueName="35" name="i*=Ibest" queryTableFieldId="35" dataDxfId="22"/>
-    <tableColumn id="14" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
-    <tableColumn id="17" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="21"/>
-    <tableColumn id="18" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
-    <tableColumn id="21" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="20"/>
-    <tableColumn id="22" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
-    <tableColumn id="23" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
-    <tableColumn id="24" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
-    <tableColumn id="25" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="19"/>
-    <tableColumn id="26" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
-    <tableColumn id="27" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
-    <tableColumn id="28" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
-    <tableColumn id="29" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="18"/>
-    <tableColumn id="30" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
-    <tableColumn id="31" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
-    <tableColumn id="32" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
-    <tableColumn id="33" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="17"/>
-    <tableColumn id="36" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="16">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0300-000023000000}" uniqueName="35" name="i*=Ibest" queryTableFieldId="35" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0300-000020000000}" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0300-000021000000}" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="17"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0300-000024000000}" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="16">
       <calculatedColumnFormula>MIN(P4,T4,X4,AB4,AF4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
-    <tableColumn id="38" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38" dataDxfId="15"/>
-    <tableColumn id="39" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="14">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0300-000025000000}" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0300-000026000000}" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38" dataDxfId="15"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0300-000027000000}" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="14">
       <calculatedColumnFormula>AG4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9905,88 +9890,88 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="figure__2" displayName="figure__2" ref="A1:I12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="figure__2" displayName="figure__2" ref="A1:I12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I12" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="figure__3" displayName="figure__3" ref="A1:I21" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="figure__3" displayName="figure__3" ref="A1:I21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I21" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="Sim_round" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="Round_trip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" uniqueName="4" name="Select Api(i*)" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" uniqueName="5" name="min(E[ti])" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" uniqueName="6" name="E(Ti_K)" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" uniqueName="7" name="Sim P[i*=j]" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" uniqueName="8" name="Ana P[i*=j]" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" uniqueName="9" name="Error" queryTableFieldId="9" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="result__4" displayName="result__4" ref="A3:AM28" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A3:AM28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="result__4" displayName="result__4" ref="A3:AM28" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A3:AM28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="39">
-    <tableColumn id="1" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="n1" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="n2" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="n3" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="n4" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="9" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="9"/>
-    <tableColumn id="34" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="35" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" uniqueName="1" name="N_simulation" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" uniqueName="2" name="N_AP" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" uniqueName="3" name="RoundTrip(K)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" uniqueName="4" name="n1" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" uniqueName="5" name="n2" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" uniqueName="6" name="n3" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" uniqueName="7" name="n4" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" uniqueName="8" name="n5" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" uniqueName="9" name="lambda1" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" uniqueName="10" name="lambda2" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" uniqueName="11" name="lambda3" queryTableFieldId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" uniqueName="12" name="lambda4" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" uniqueName="13" name="lambda5" queryTableFieldId="13" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0600-000022000000}" uniqueName="34" name="MIN[E[Ti]" queryTableFieldId="35" dataDxfId="8">
       <calculatedColumnFormula>MIN((D4/I4),(E4/J4),(F4/K4),(G4/L4),(H4/M4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" uniqueName="35" name="i*=Ibest" queryTableFieldId="34" dataDxfId="7"/>
-    <tableColumn id="14" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
-    <tableColumn id="17" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="6"/>
-    <tableColumn id="18" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
-    <tableColumn id="21" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="5"/>
-    <tableColumn id="22" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
-    <tableColumn id="23" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
-    <tableColumn id="24" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
-    <tableColumn id="25" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="4"/>
-    <tableColumn id="26" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
-    <tableColumn id="27" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
-    <tableColumn id="28" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
-    <tableColumn id="29" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="3"/>
-    <tableColumn id="30" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
-    <tableColumn id="31" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
-    <tableColumn id="32" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
-    <tableColumn id="33" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="2"/>
-    <tableColumn id="36" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="1">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0600-000023000000}" uniqueName="35" name="i*=Ibest" queryTableFieldId="34" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" uniqueName="14" name="E[T1_(K)]" queryTableFieldId="14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" uniqueName="15" name="Psim1" queryTableFieldId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" uniqueName="16" name="Pmath1" queryTableFieldId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" uniqueName="17" name="Error1" queryTableFieldId="17" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" uniqueName="18" name="E[T2_(K)]" queryTableFieldId="18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" uniqueName="19" name="Psim2" queryTableFieldId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0600-000014000000}" uniqueName="20" name="Pmath2" queryTableFieldId="20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0600-000015000000}" uniqueName="21" name="Error2" queryTableFieldId="21" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0600-000016000000}" uniqueName="22" name="E[T3_(K)]" queryTableFieldId="22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0600-000017000000}" uniqueName="23" name="Psim3" queryTableFieldId="23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0600-000018000000}" uniqueName="24" name="Pmath3" queryTableFieldId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0600-000019000000}" uniqueName="25" name="Error3" queryTableFieldId="25" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0600-00001A000000}" uniqueName="26" name="E[T4_(K)]" queryTableFieldId="26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0600-00001B000000}" uniqueName="27" name="Psim4" queryTableFieldId="27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0600-00001C000000}" uniqueName="28" name="Pmath4" queryTableFieldId="28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0600-00001D000000}" uniqueName="29" name="Error4" queryTableFieldId="29" dataDxfId="3"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0600-00001E000000}" uniqueName="30" name="E[T5_(K)]" queryTableFieldId="30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0600-00001F000000}" uniqueName="31" name="Psim5" queryTableFieldId="31"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0600-000020000000}" uniqueName="32" name="Pmath5" queryTableFieldId="32"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0600-000021000000}" uniqueName="33" name="Error5" queryTableFieldId="33" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0600-000024000000}" uniqueName="36" name="Min(E[Ti_K])" queryTableFieldId="36" dataDxfId="1">
       <calculatedColumnFormula>MIN(P4,T4,X4,AB4,AF4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
-    <tableColumn id="38" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38"/>
-    <tableColumn id="39" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="0">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0600-000025000000}" uniqueName="37" name="i*=Imin" queryTableFieldId="37"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0600-000026000000}" uniqueName="38" name="P[i*=Imin]" queryTableFieldId="38"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0600-000027000000}" uniqueName="39" name="P[i*=Ibest]" queryTableFieldId="39" dataDxfId="0">
       <calculatedColumnFormula>AG4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10290,24 +10275,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10327,7 +10312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -10347,7 +10332,7 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -10367,7 +10352,7 @@
         <v>0.55010000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -10387,7 +10372,7 @@
         <v>0.61739999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -10407,7 +10392,7 @@
         <v>0.6552</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -10427,7 +10412,7 @@
         <v>0.68969999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -10447,7 +10432,7 @@
         <v>0.71309999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -10467,7 +10452,7 @@
         <v>0.74550000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -10487,7 +10472,7 @@
         <v>0.76749999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -10507,7 +10492,7 @@
         <v>0.7873</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -10527,7 +10512,7 @@
         <v>0.79079999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -10557,23 +10542,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10593,7 +10578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -10613,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -10633,7 +10618,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -10653,7 +10638,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -10673,7 +10658,7 @@
         <v>0.63380000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -10693,7 +10678,7 @@
         <v>0.55989999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -10713,7 +10698,7 @@
         <v>0.49270000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -10733,7 +10718,7 @@
         <v>0.4466</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -10753,7 +10738,7 @@
         <v>0.41770000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -10773,7 +10758,7 @@
         <v>0.37809999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -10793,7 +10778,7 @@
         <v>0.34639999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -10813,7 +10798,7 @@
         <v>0.32040000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -10833,7 +10818,7 @@
         <v>0.3044</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -10853,7 +10838,7 @@
         <v>0.2858</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -10873,7 +10858,7 @@
         <v>0.26140000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -10893,7 +10878,7 @@
         <v>0.26079999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -10913,7 +10898,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -10933,7 +10918,7 @@
         <v>0.2276</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -10953,7 +10938,7 @@
         <v>0.2117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -10973,7 +10958,7 @@
         <v>0.21179999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -11004,7 +10989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11014,43 +10999,43 @@
       <selection activeCell="AK24" sqref="AK24:AL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
-    <col min="14" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" customWidth="1"/>
-    <col min="38" max="38" width="19.28515625" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.6640625" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" customWidth="1"/>
+    <col min="38" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.35">
       <c r="N2" s="20" t="s">
         <v>8</v>
       </c>
@@ -11081,7 +11066,7 @@
       <c r="AK2" s="21"/>
       <c r="AL2" s="21"/>
     </row>
-    <row r="3" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -11197,7 +11182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -11315,7 +11300,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -11433,7 +11418,7 @@
         <v>0.53420000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -11551,7 +11536,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -11669,7 +11654,7 @@
         <v>0.21959999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -11787,7 +11772,7 @@
         <v>0.60970000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -11905,7 +11890,7 @@
         <v>0.70389999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -12023,7 +12008,7 @@
         <v>0.33910000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -12141,7 +12126,7 @@
         <v>0.2949</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -12259,7 +12244,7 @@
         <v>0.68440000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -12377,7 +12362,7 @@
         <v>0.74570000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -12495,7 +12480,7 @@
         <v>0.62409999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -12613,7 +12598,7 @@
         <v>0.51480000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -12731,7 +12716,7 @@
         <v>0.74480000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -12849,7 +12834,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -12967,7 +12952,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -13085,7 +13070,7 @@
         <v>0.36309999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -13203,7 +13188,7 @@
         <v>0.76449999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -13321,7 +13306,7 @@
         <v>0.80810000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10000</v>
       </c>
@@ -13439,7 +13424,7 @@
         <v>0.32169999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -13557,7 +13542,7 @@
         <v>0.39539999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK24" s="22" t="s">
         <v>51</v>
       </c>
@@ -13565,7 +13550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AG25" s="5"/>
       <c r="AH25" s="12" t="s">
         <v>46</v>
@@ -13577,19 +13562,19 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AG26" s="7"/>
       <c r="AH26" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AG27" s="9"/>
       <c r="AH27" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AG28" s="10"/>
       <c r="AH28" s="12" t="s">
         <v>49</v>
@@ -13610,55 +13595,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" customWidth="1"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" customWidth="1"/>
-    <col min="32" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5546875" customWidth="1"/>
+    <col min="32" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" customWidth="1"/>
     <col min="38" max="38" width="11" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" customWidth="1"/>
+    <col min="39" max="39" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.35">
       <c r="P2" s="20" t="s">
         <v>8</v>
       </c>
@@ -13682,7 +13667,7 @@
       <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
     </row>
-    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -13801,7 +13786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -13923,7 +13908,7 @@
         <v>0.46010000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -14045,7 +14030,7 @@
         <v>0.5595</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -14167,7 +14152,7 @@
         <v>0.61670000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -14289,7 +14274,7 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -14411,7 +14396,7 @@
         <v>0.69010000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -14533,7 +14518,7 @@
         <v>0.71319999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -14655,7 +14640,7 @@
         <v>0.73819999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -14777,7 +14762,7 @@
         <v>0.75480000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -14899,7 +14884,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -15021,7 +15006,7 @@
         <v>0.79259999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -15143,7 +15128,7 @@
         <v>0.80469999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL15" s="22" t="s">
         <v>51</v>
       </c>
@@ -15151,14 +15136,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL16" s="22"/>
       <c r="AM16" s="16">
         <f>9/11</f>
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="18" spans="36:36" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="36:36" ht="21" x14ac:dyDescent="0.4">
       <c r="AJ18" s="1" t="s">
         <v>64</v>
       </c>
@@ -15176,27 +15161,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -15225,7 +15210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -15254,7 +15239,7 @@
         <v>5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -15283,7 +15268,7 @@
         <v>7.5602000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -15312,7 +15297,7 @@
         <v>3.4419099999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -15341,7 +15326,7 @@
         <v>8.77205E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -15370,7 +15355,7 @@
         <v>1.69826E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -15399,7 +15384,7 @@
         <v>7.7160600000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -15428,7 +15413,7 @@
         <v>4.91677E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -15457,7 +15442,7 @@
         <v>9.0406600000000007E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -15486,7 +15471,7 @@
         <v>1.4213699999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -15515,7 +15500,7 @@
         <v>2.1107999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -15544,7 +15529,7 @@
         <v>3.97022E-3</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="18"/>
     </row>
   </sheetData>
@@ -15557,27 +15542,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -15606,7 +15591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>10000</v>
       </c>
@@ -15632,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -15661,7 +15646,7 @@
         <v>4.3114099999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -15690,7 +15675,7 @@
         <v>3.3617E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -15719,7 +15704,7 @@
         <v>4.1133000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -15748,7 +15733,7 @@
         <v>7.0199599999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -15777,7 +15762,7 @@
         <v>4.2342899999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -15806,7 +15791,7 @@
         <v>1.7519699999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -15835,7 +15820,7 @@
         <v>1.7536100000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -15864,7 +15849,7 @@
         <v>6.9610699999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -15893,7 +15878,7 @@
         <v>5.4740600000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -15922,7 +15907,7 @@
         <v>8.9278699999999992E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -15951,7 +15936,7 @@
         <v>2.8397519999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -15980,7 +15965,7 @@
         <v>8.3253700000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -16009,7 +15994,7 @@
         <v>1.2314810000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -16038,7 +16023,7 @@
         <v>1.463503E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -16067,7 +16052,7 @@
         <v>9.7483599999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -16096,7 +16081,7 @@
         <v>1.4646309999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -16125,7 +16110,7 @@
         <v>1.5280419999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -16154,7 +16139,7 @@
         <v>2.7420659999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -16193,62 +16178,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" customWidth="1"/>
+    <col min="29" max="29" width="8.5546875" customWidth="1"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" customWidth="1"/>
+    <col min="35" max="35" width="9.109375" customWidth="1"/>
+    <col min="36" max="36" width="14.109375" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="38" max="38" width="12.88671875" customWidth="1"/>
+    <col min="39" max="39" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.35">
       <c r="P2" s="20" t="s">
         <v>8</v>
       </c>
@@ -16272,7 +16257,7 @@
       <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
     </row>
-    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -16391,7 +16376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -16513,7 +16498,7 @@
         <v>0.47110000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -16635,7 +16620,7 @@
         <v>0.4173</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -16757,7 +16742,7 @@
         <v>0.37819999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -16879,7 +16864,7 @@
         <v>0.35020000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10000</v>
       </c>
@@ -17001,7 +16986,7 @@
         <v>0.32919999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000</v>
       </c>
@@ -17123,7 +17108,7 @@
         <v>0.55840000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10000</v>
       </c>
@@ -17245,7 +17230,7 @@
         <v>0.49709999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -17367,7 +17352,7 @@
         <v>0.45119999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -17489,7 +17474,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -17611,7 +17596,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -17733,7 +17718,7 @@
         <v>0.61060000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -17855,7 +17840,7 @@
         <v>0.54720000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -17977,7 +17962,7 @@
         <v>0.49790000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -18099,7 +18084,7 @@
         <v>0.45590000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10000</v>
       </c>
@@ -18221,7 +18206,7 @@
         <v>0.42520000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10000</v>
       </c>
@@ -18343,7 +18328,7 @@
         <v>0.66059999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -18465,7 +18450,7 @@
         <v>0.59530000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -18587,7 +18572,7 @@
         <v>0.54279999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10000</v>
       </c>
@@ -18709,7 +18694,7 @@
         <v>0.49769999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10000</v>
       </c>
@@ -18831,7 +18816,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -18953,7 +18938,7 @@
         <v>0.69669999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10000</v>
       </c>
@@ -19075,7 +19060,7 @@
         <v>0.63460000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -19197,7 +19182,7 @@
         <v>0.57779999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10000</v>
       </c>
@@ -19319,7 +19304,7 @@
         <v>0.53420000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10000</v>
       </c>
@@ -19441,7 +19426,7 @@
         <v>0.48759999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="AL29" s="22" t="s">
         <v>51</v>
       </c>
@@ -19449,7 +19434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -19462,7 +19447,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>73</v>
       </c>
@@ -19476,7 +19461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -19500,7 +19485,7 @@
         <v>9.2474306767570999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -19524,7 +19509,7 @@
         <v>0.13850878390275101</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -19548,7 +19533,7 @@
         <v>0.19263433910816999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -19572,7 +19557,7 @@
         <v>0.25411455768392999</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -19596,7 +19581,7 @@
         <v>0.32226801253757797</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -19604,7 +19589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>73</v>
       </c>
@@ -19618,7 +19603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -19642,7 +19627,7 @@
         <v>1.7107473572772001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -19666,7 +19651,7 @@
         <v>5.8165186394512999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -19690,7 +19675,7 @@
         <v>0.14347555091502701</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -19714,7 +19699,7 @@
         <v>0.28647565111025203</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>72</v>
       </c>
